--- a/data/black_history_month_data.xlsx
+++ b/data/black_history_month_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SChildress\Documents\GitHub\heritage-month\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DFD8F5-E275-4696-ADDC-AE734C207509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA612DA2-7747-4A53-BED9-4A64FCD4CA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6BF6366D-BBDF-40F5-8D39-4EF720CAF928}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BF6366D-BBDF-40F5-8D39-4EF720CAF928}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pop by County 2010 2020" sheetId="1" r:id="rId1"/>
-    <sheet name="Racial Identity" sheetId="3" r:id="rId2"/>
+    <sheet name="Median income" sheetId="4" r:id="rId1"/>
+    <sheet name="Pop by County 2010 2020" sheetId="1" r:id="rId2"/>
+    <sheet name="Racial Identity" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Pop by County 2010 2020'!$A$4:$A$7</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
   <si>
     <t>Region</t>
   </si>
@@ -107,6 +108,18 @@
   </si>
   <si>
     <t>Black Population Share</t>
+  </si>
+  <si>
+    <t>King County</t>
+  </si>
+  <si>
+    <t>Kitsap County</t>
+  </si>
+  <si>
+    <t>Pierce County</t>
+  </si>
+  <si>
+    <t>Snohomish County</t>
   </si>
   <si>
     <t>Black or African American alone</t>
@@ -180,12 +193,83 @@
   <si>
     <t>2020 People's Racial Identities who Identify as Black Alone or In Combination</t>
   </si>
+  <si>
+    <t>Note: Code for this work is on Github at: https://github.com/psrc/heritage-month</t>
+  </si>
+  <si>
+    <t>White, Non-Hispanic Householder Median Income</t>
+  </si>
+  <si>
+    <t>White, Non-Hispanic Householder Median Income MOE</t>
+  </si>
+  <si>
+    <t>Black Householder Median Income</t>
+  </si>
+  <si>
+    <r>
+      <t>Median Income by Black and White householders, ACS table 19013 (B, H), 2019 1-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>estimate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Median Income by Black and White householders, ACS table 19013 (B, H), 2019 5 -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>estimate</t>
+    </r>
+  </si>
+  <si>
+    <t>I'd go with 5-year estimate because of the wide error bars on the 1-year estimate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +291,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +308,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -269,6 +361,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -277,6 +389,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -341,63 +466,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,6 +548,1082 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Median Income by Black and White householders, ACS table 19013 (B, H), 2019 5 year estimate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Median income'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black Householder Median Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Median income'!$C$14:$C$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8640</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2765</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4023</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Median income'!$C$14:$C$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8640</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2765</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4023</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Median income'!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>King </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kitsap </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pierce </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Snohomish </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Median income'!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>49846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F797-4D71-98A7-16F135FF622E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Median income'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>White, Non-Hispanic Householder Median Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Median income'!$E$14:$E$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>816</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1241</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1030</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1222</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Median income'!$E$14:$E$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>816</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1241</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1030</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1222</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Median income'!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>King </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kitsap </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pierce </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Snohomish </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Median income'!$D$14:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>101265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F797-4D71-98A7-16F135FF622E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="173715248"/>
+        <c:axId val="173716912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="173715248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173716912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="173716912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173715248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Median Income by Black and White householders, ACS table 19013 (B, H), 2019 1-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>year estimate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Median income'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black Householder Median Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Median income'!$C$3:$C$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5257</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>19532</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12325</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>19660</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Median income'!$C$3:$C$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5257</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>19532</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12325</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>19660</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Median income'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>King County</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kitsap County</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pierce County</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Snohomish County</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Median income'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>52462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C20B-4728-80FD-C932D06DED73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Median income'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>White, Non-Hispanic Householder Median Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Median income'!$E$3:$E$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2900</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4099</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2468</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3171</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Median income'!$E$3:$E$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2900</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4099</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2468</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3171</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Median income'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>King County</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kitsap County</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pierce County</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Snohomish County</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Median income'!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>109124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C20B-4728-80FD-C932D06DED73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="173715248"/>
+        <c:axId val="173716912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="173715248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173716912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="173716912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173715248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -849,7 +2060,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1280,7 +2491,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1602,7 +2813,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2365,6 +3576,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3875,7 +5166,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3886,7 +5177,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3909,7 +5200,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -3932,16 +5223,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3966,51 +5260,36 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4025,8 +5304,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -4034,12 +5315,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -4049,13 +5327,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4074,16 +5352,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -4154,6 +5434,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -4185,8 +5471,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4241,7 +5527,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -4269,18 +5555,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -4290,9 +5565,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4308,7 +5586,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4324,7 +5602,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4338,7 +5616,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -4371,7 +5649,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -4380,12 +5658,18 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4396,19 +5680,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1">
-          <a:lumMod val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4431,7 +5703,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -4454,16 +5726,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4488,51 +5763,36 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4547,8 +5807,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -4556,12 +5818,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -4571,13 +5830,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4596,16 +5855,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -4676,6 +5937,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -4707,8 +5974,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4763,7 +6030,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -4791,18 +6058,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -4812,9 +6068,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4830,7 +6089,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4846,7 +6105,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4860,7 +6119,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -4893,7 +6152,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -4902,12 +6161,18 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4918,18 +6183,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1">
-          <a:lumMod val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
@@ -5428,7 +6681,1130 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20637</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FE99BD-799C-4099-8792-BF2C5E16B8BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>569913</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>568325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B51BBC-C738-4D5C-9E4A-C7C7919E9C41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5621,7 +7997,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6036,11 +8412,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA4F99D-F11C-4B51-BBC9-8709368647B0}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="18.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="32">
+        <v>52462</v>
+      </c>
+      <c r="C3" s="32">
+        <v>5257</v>
+      </c>
+      <c r="D3" s="32">
+        <v>109124</v>
+      </c>
+      <c r="E3" s="33">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="32">
+        <v>67143</v>
+      </c>
+      <c r="C4" s="32">
+        <v>19532</v>
+      </c>
+      <c r="D4" s="32">
+        <v>81317</v>
+      </c>
+      <c r="E4" s="33">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="32">
+        <v>61188</v>
+      </c>
+      <c r="C5" s="32">
+        <v>12325</v>
+      </c>
+      <c r="D5" s="32">
+        <v>83992</v>
+      </c>
+      <c r="E5" s="33">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="34">
+        <v>70107</v>
+      </c>
+      <c r="C6" s="34">
+        <v>19660</v>
+      </c>
+      <c r="D6" s="34">
+        <v>88946</v>
+      </c>
+      <c r="E6" s="35">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="32">
+        <v>49846</v>
+      </c>
+      <c r="C14" s="32">
+        <v>2006</v>
+      </c>
+      <c r="D14" s="32">
+        <v>101265</v>
+      </c>
+      <c r="E14" s="33">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="32">
+        <v>47074</v>
+      </c>
+      <c r="C15" s="32">
+        <v>8640</v>
+      </c>
+      <c r="D15" s="32">
+        <v>77807</v>
+      </c>
+      <c r="E15" s="33">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="32">
+        <v>54683</v>
+      </c>
+      <c r="C16" s="32">
+        <v>2765</v>
+      </c>
+      <c r="D16" s="32">
+        <v>76183</v>
+      </c>
+      <c r="E16" s="33">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="34">
+        <v>71050</v>
+      </c>
+      <c r="C17" s="34">
+        <v>4023</v>
+      </c>
+      <c r="D17" s="34">
+        <v>88341</v>
+      </c>
+      <c r="E17" s="35">
+        <v>1222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DD74AC-7B14-4C8A-84E8-6059B75DB471}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6049,169 +8629,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="29" t="s">
-        <v>42</v>
+      <c r="B1" s="31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="11">
+      <c r="A2" s="3"/>
+      <c r="B2" s="13">
         <v>2010</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14">
         <v>2020</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>147950</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>1931249</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <f>B4/C4</f>
         <v>7.6608453907290056E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>194857</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>2269675</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <f>E4/F4</f>
         <v>8.585237974599888E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>10086</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>251133</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <f t="shared" ref="D5:D8" si="0">B5/C5</f>
         <v>4.0161985879991875E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>13432</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>275611</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <f t="shared" ref="G5:G7" si="1">E5/F5</f>
         <v>4.873535526521075E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>74797</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>795225</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>9.4057656638058415E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>97967</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>921130</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>0.10635523758861398</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>26069</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>713335</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>3.6545241716724963E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>43299</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>827957</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
         <v>5.2296194126023453E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="20">
         <v>258902</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="21">
         <v>3690942</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="22">
         <f t="shared" si="0"/>
         <v>7.0145236636067435E-2</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="20">
         <f>SUM(E4:E7)</f>
         <v>349555</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="21">
         <f>SUM(F4:F7)</f>
         <v>4294373</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="22">
         <f>E8/F8</f>
         <v>8.139837876216155E-2</v>
       </c>
@@ -6230,139 +8810,144 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="29" t="s">
-        <v>43</v>
+      <c r="B11" s="31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <f>E4-B4</f>
         <v>46907</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <f>B14/B4</f>
         <v>0.31704629942548157</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="17">
         <f>F4-C4</f>
         <v>338426</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <f>D14/C4</f>
         <v>0.17523685449157514</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <f>E5-B5</f>
         <v>3346</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <f>B15/B5</f>
         <v>0.33174697600634545</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="17">
         <f>F5-C5</f>
         <v>24478</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="7">
         <f>D15/C5</f>
         <v>9.74702647601072E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <f>E6-B6</f>
         <v>23170</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <f>B16/B6</f>
         <v>0.3097717822907336</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="17">
         <f>F6-C6</f>
         <v>125905</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <f>D16/C6</f>
         <v>0.15832625986356064</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <f>E7-B7</f>
         <v>17230</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <f>B17/B7</f>
         <v>0.66093827918217041</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="17">
         <f>F7-C7</f>
         <v>114622</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <f>D17/C7</f>
         <v>0.16068467129749697</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="20">
         <f>E8-B8</f>
         <v>90653</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="23">
         <f>B18/B8</f>
         <v>0.35014406995697211</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="24">
         <f>F8-C8</f>
         <v>603431</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="22">
         <f>D18/C8</f>
         <v>0.16348969991942436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -6382,12 +8967,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9888BC98-F078-48BD-A3BD-24A6E80C418D}">
-  <dimension ref="A1:AS31"/>
+  <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6398,118 +8983,118 @@
     <row r="1" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="X2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AC2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AD2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AG2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AH2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AN2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AP2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AQ2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AR2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AS2" t="s">
         <v>3</v>
@@ -6517,18 +9102,18 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>33</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="K3">
@@ -6637,18 +9222,18 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G4">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>35</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K4">
@@ -6757,18 +9342,18 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>53</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="K5">
@@ -6877,21 +9462,21 @@
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>61</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K6">
@@ -6999,8 +9584,8 @@
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="J7" s="23" t="s">
-        <v>36</v>
+      <c r="J7" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="K7">
         <f>SUM(K3:K6)</f>
@@ -7136,98 +9721,98 @@
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="C15" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="C15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="25" t="s">
+      <c r="J16" s="27" t="s">
         <v>37</v>
       </c>
+      <c r="K16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>41</v>
+      </c>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B17" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="25">
+      <c r="B17" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="27">
         <f>K7</f>
         <v>254602</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="27">
         <f t="shared" ref="D17:L17" si="2">L7</f>
         <v>54283</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="27">
         <f t="shared" si="2"/>
         <v>4755</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="27">
         <f t="shared" si="2"/>
         <v>7297</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="27">
         <f t="shared" si="2"/>
         <v>1756</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="27">
         <f t="shared" si="2"/>
         <v>5529</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="27">
         <f t="shared" si="2"/>
         <v>7219</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="27">
         <f t="shared" si="2"/>
         <v>5102</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="27">
         <f t="shared" si="2"/>
         <v>3099</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="27">
         <f t="shared" si="2"/>
         <v>5913</v>
       </c>
@@ -7237,69 +9822,69 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="27">
+      <c r="B18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="29">
         <f>C17/$M$17</f>
         <v>0.7283603438657722</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="29">
         <f t="shared" ref="D18:L18" si="3">D17/$M$17</f>
         <v>0.15529172805424038</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="29">
         <f t="shared" si="3"/>
         <v>1.360300954070175E-2</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="29">
         <f t="shared" si="3"/>
         <v>2.0875112643217807E-2</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="29">
         <f t="shared" si="3"/>
         <v>5.0235299166082594E-3</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="29">
         <f t="shared" si="3"/>
         <v>1.5817253364992633E-2</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="29">
         <f t="shared" si="3"/>
         <v>2.065197179270787E-2</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="29">
         <f t="shared" si="3"/>
         <v>1.4595700247457481E-2</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="29">
         <f t="shared" si="3"/>
         <v>8.8655576375677655E-3</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="29">
         <f t="shared" si="3"/>
         <v>1.6915792936733846E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>254602</v>
@@ -7310,7 +9895,7 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>54283</v>
@@ -7321,7 +9906,7 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>4755</v>
@@ -7332,7 +9917,7 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D25">
         <v>7297</v>
@@ -7343,7 +9928,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>1756</v>
@@ -7354,7 +9939,7 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>5529</v>
@@ -7365,7 +9950,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>7219</v>
@@ -7376,7 +9961,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>5102</v>
@@ -7387,7 +9972,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D30">
         <v>3099</v>
@@ -7398,13 +9983,18 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D31">
         <v>5913</v>
       </c>
       <c r="E31" s="1">
         <v>1.6915792936733846E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/black_history_month_data.xlsx
+++ b/data/black_history_month_data.xlsx
@@ -8,23 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SChildress\Documents\GitHub\heritage-month\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA612DA2-7747-4A53-BED9-4A64FCD4CA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34265392-6F28-459E-9127-38F3BCD7BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BF6366D-BBDF-40F5-8D39-4EF720CAF928}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{6BF6366D-BBDF-40F5-8D39-4EF720CAF928}"/>
   </bookViews>
   <sheets>
     <sheet name="Median income" sheetId="4" r:id="rId1"/>
-    <sheet name="Pop by County 2010 2020" sheetId="1" r:id="rId2"/>
-    <sheet name="Racial Identity" sheetId="3" r:id="rId3"/>
+    <sheet name="Poverty" sheetId="5" r:id="rId2"/>
+    <sheet name="Education" sheetId="7" r:id="rId3"/>
+    <sheet name="Occupants per Room" sheetId="8" r:id="rId4"/>
+    <sheet name="UnitsinStructure" sheetId="11" r:id="rId5"/>
+    <sheet name="Pop by County 2010 2020" sheetId="1" r:id="rId6"/>
+    <sheet name="Racial Identity" sheetId="3" r:id="rId7"/>
+    <sheet name="Median Age" sheetId="9" r:id="rId8"/>
+    <sheet name="TransporttoWork" sheetId="6" r:id="rId9"/>
+    <sheet name="Map" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Pop by County 2010 2020'!$A$4:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Pop by County 2010 2020'!$A$4:$A$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Pop by County 2010 2020'!$E$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Pop by County 2010 2020'!$E$4:$E$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Pop by County 2010 2020'!$E$4:$E$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Racial Identity'!$K$2:$T$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Racial Identity'!$K$7:$T$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Pop by County 2010 2020'!$E$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Pop by County 2010 2020'!$E$4:$E$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Racial Identity'!$K$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Racial Identity'!$K$7:$T$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="146">
   <si>
     <t>Region</t>
   </si>
@@ -232,13 +237,145 @@
     </r>
   </si>
   <si>
+    <t>I'd go with 5-year estimate because of the wide error bars on the 1-year estimate</t>
+  </si>
+  <si>
+    <t>Total Black Householders</t>
+  </si>
+  <si>
+    <t>Black Households in Poverty</t>
+  </si>
+  <si>
+    <t>MOE total Black Householders</t>
+  </si>
+  <si>
+    <t>MOE Black Householders in Poverty</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>White, Non-Hispanic</t>
+  </si>
+  <si>
+    <t>Total White, non-Hispanic Householders</t>
+  </si>
+  <si>
+    <t>White, non-Hispanic Households in Poverty</t>
+  </si>
+  <si>
+    <t>MOE total White, non-Hispanic Householders</t>
+  </si>
+  <si>
+    <t>MOE White, non-Hispanic Householders in Poverty</t>
+  </si>
+  <si>
+    <t>Code to retrieve data is here: https://github.com/psrc/heritage-month</t>
+  </si>
+  <si>
+    <t>moe</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:</t>
+  </si>
+  <si>
+    <t>estimate.x</t>
+  </si>
+  <si>
+    <t>moe.x</t>
+  </si>
+  <si>
+    <t>estimate.y</t>
+  </si>
+  <si>
+    <t>moe.y</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Car, truck, or van - carpooled</t>
+  </si>
+  <si>
+    <t>Car, truck, or van - drove alone</t>
+  </si>
+  <si>
+    <t>Public transportation (excluding taxicab)</t>
+  </si>
+  <si>
+    <t>Taxicab, motorcycle, bicycle, or other means</t>
+  </si>
+  <si>
+    <t>Walked</t>
+  </si>
+  <si>
+    <t>Transportation Mode to Work</t>
+  </si>
+  <si>
+    <t>Share of Black Workers</t>
+  </si>
+  <si>
+    <t>Share of White, non-Hispanic Workers</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Female:</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Female:!!Bachelor's degree or higher</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Female:!!High school graduate (includes equivalency)</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Female:!!Less than high school diploma</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Female:!!Some college or associate's degree</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Male:</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Male:!!Bachelor's degree or higher</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Male:!!High school graduate (includes equivalency)</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Male:!!Less than high school diploma</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Male:!!Some college or associate's degree</t>
+  </si>
+  <si>
+    <t>Bachelor's degree or higher</t>
+  </si>
+  <si>
+    <t>High school graduate (includes equivalency)</t>
+  </si>
+  <si>
+    <t>Less than high school diploma</t>
+  </si>
+  <si>
+    <t>Some college or associate's degree</t>
+  </si>
+  <si>
+    <t>Educational Attainment</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
     <r>
       <t>Median Income by Black and White householders, ACS table 19013 (B, H), 2019 5 -</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -248,7 +385,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -258,18 +396,158 @@
     </r>
   </si>
   <si>
-    <t>I'd go with 5-year estimate because of the wide error bars on the 1-year estimate</t>
+    <t>For Regional Population 18 and Older</t>
+  </si>
+  <si>
+    <t>Educational Attainment for Black and White, non-Hispanic People ages 18+, ACS table C15002, 2019 5 - year estimate</t>
+  </si>
+  <si>
+    <t>Share of Workers by Mode of Transportation to Work</t>
+  </si>
+  <si>
+    <t>Share of Workers by Mode of Transportation to Work, 2019 ACS 5-year, Table B08105</t>
+  </si>
+  <si>
+    <t>Underlying Data</t>
+  </si>
+  <si>
+    <t>2020 Regional People's Racial Identities who Identify as Black Alone or In Combination</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!1.00 or less occupants per room</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!1.01 or more occupants per room</t>
+  </si>
+  <si>
+    <t>Median Age</t>
+  </si>
+  <si>
+    <t>Share of Black Persons in Poverty</t>
+  </si>
+  <si>
+    <t>2019 5-year ACS Poverty by Black (table B17020B) and White, Non Hispanic Population table B17020H)</t>
+  </si>
+  <si>
+    <t>Black Householders</t>
+  </si>
+  <si>
+    <t>White Non-Hispanic Householders</t>
+  </si>
+  <si>
+    <t>Table B25014 (B, H) 5 year ACS</t>
+  </si>
+  <si>
+    <t>White, Non-Hispanic Householders</t>
+  </si>
+  <si>
+    <t>Underling Data</t>
+  </si>
+  <si>
+    <t>1.00 or less occupants per room</t>
+  </si>
+  <si>
+    <t>1.01 or more occupants per room</t>
+  </si>
+  <si>
+    <t>Occupants per Room</t>
+  </si>
+  <si>
+    <t>Median Incomes for Black Householders are less than half that of White, non-Hispanic Householders in King County.</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>About 3 times as many Black persons live in poverty as Whites.</t>
+  </si>
+  <si>
+    <t>Notes :26% of Black adults have a bachelor's degree or higher in the region, vs. 44% of White, non-Hispanic Adults.</t>
+  </si>
+  <si>
+    <t>10% of Black adults have not graduated high school, vs 4% of Whites.</t>
+  </si>
+  <si>
+    <t>2019 Share of Householders by Occupants per Room, ACS 5 year data, Table 25014</t>
+  </si>
+  <si>
+    <t>Notes: Black householders are more likely to live in crowded conditions than White non-Hispanic householders.</t>
+  </si>
+  <si>
+    <t>All counties show large disparities between Black and White household median incomes, on the range of $15,000 to $30,000.</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!1, attached</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!1, detached</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!10 to 19</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!2</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!20 to 49</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!3 or 4</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!5 to 9</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!50 or more</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Boat, RV, van, etc.</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Mobile home</t>
+  </si>
+  <si>
+    <t>2019 Share of Householders by Units in Structure, ACS 5 year data, Table 25032</t>
+  </si>
+  <si>
+    <t>Units in Strucure</t>
+  </si>
+  <si>
+    <t>20 or More</t>
+  </si>
+  <si>
+    <t>RV, Van, Boat or Mobile Home</t>
+  </si>
+  <si>
+    <t>1 attached</t>
+  </si>
+  <si>
+    <t>2 to 9</t>
+  </si>
+  <si>
+    <t>10 to 19</t>
+  </si>
+  <si>
+    <t>1 detached</t>
+  </si>
+  <si>
+    <t>Notes:Only 35% of Black householders live in single family detached homes, about half that of white non-Hispanic householders (64%)</t>
+  </si>
+  <si>
+    <t>Black householders are much more likely to live in a structure with 20+ Units.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +563,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -293,22 +580,44 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -336,6 +645,26 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -378,6 +707,19 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -466,25 +808,88 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,45 +899,58 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1196,43 +1614,11 @@
             <c:plus>
               <c:numRef>
                 <c:f>'Median income'!$C$3:$C$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>5257</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>19532</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>12325</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>19660</c:v>
-                  </c:pt>
-                </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
                 <c:f>'Median income'!$C$3:$C$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>5257</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>19532</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>12325</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>19660</c:v>
-                  </c:pt>
-                </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
@@ -1252,42 +1638,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Median income'!$A$3:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>King County</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Kitsap County</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pierce County</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Snohomish County</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Median income'!$B$3:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>52462</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67143</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61188</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70107</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1327,43 +1682,11 @@
             <c:plus>
               <c:numRef>
                 <c:f>'Median income'!$E$3:$E$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>2900</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4099</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2468</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3171</c:v>
-                  </c:pt>
-                </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
                 <c:f>'Median income'!$E$3:$E$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>2900</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4099</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2468</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3171</c:v>
-                  </c:pt>
-                </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
@@ -1383,42 +1706,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'Median income'!$A$3:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>King County</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Kitsap County</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pierce County</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Snohomish County</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Median income'!$D$3:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>109124</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81317</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>83992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>88946</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1637,6 +1929,1584 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Share</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Householders in Poverty</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>2019 ACS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Poverty!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Poverty!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>King </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kitsap </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pierce </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Snohomish </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Region</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Poverty!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.24090344178561934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19749547374773688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16250893433049177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11927509532582152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20725015781365189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71FF-4305-9E7E-4DFCB7489F6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Poverty!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>White, Non-Hispanic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Poverty!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>King </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kitsap </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pierce </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Snohomish </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Region</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Poverty!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.2677736572840578E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8884083744240566E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2885493822334122E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3579651447984345E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8541467882540327E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-71FF-4305-9E7E-4DFCB7489F6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1088675328"/>
+        <c:axId val="1088674080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1088675328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088674080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1088674080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088675328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Educational Attainment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Race</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Education!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bachelor's degree or higher</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Education!$B$3:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Education!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.255785749032099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4398081805246033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E491-47FB-84FC-27E2E7B4119D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Education!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High school graduate (includes equivalency)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Education!$B$3:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Education!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.25610560616258071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19509283325461699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E491-47FB-84FC-27E2E7B4119D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Education!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Less than high school diploma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Education!$B$3:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Education!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.10234095437371307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1312485083336944E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E491-47FB-84FC-27E2E7B4119D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Education!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Some college or associate's degree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Education!$B$3:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Education!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.38576769043160719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32378650113744278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E491-47FB-84FC-27E2E7B4119D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1635692352"/>
+        <c:axId val="1635694848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1635692352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1635694848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1635694848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1635692352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Share of Householders by Units in Structure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UnitsinStructure!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 attached</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>UnitsinStructure!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Black Householders</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>White, Non-Hispanic Householders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UnitsinStructure!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.8443448396297802E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5040299354067094E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7D4-4269-BA4C-D92F61E8C736}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UnitsinStructure!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 detached</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>UnitsinStructure!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Black Householders</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>White, Non-Hispanic Householders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UnitsinStructure!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.35080039583212064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64204060275345942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A7D4-4269-BA4C-D92F61E8C736}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UnitsinStructure!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 to 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>UnitsinStructure!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Black Householders</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>White, Non-Hispanic Householders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UnitsinStructure!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.21493684149251993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2863078932210019E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A7D4-4269-BA4C-D92F61E8C736}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UnitsinStructure!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 to 19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>UnitsinStructure!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Black Householders</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>White, Non-Hispanic Householders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UnitsinStructure!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.13750509342802258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2485456616085446E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A7D4-4269-BA4C-D92F61E8C736}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UnitsinStructure!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 or More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>UnitsinStructure!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Black Householders</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>White, Non-Hispanic Householders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UnitsinStructure!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.23243494964782582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12911710776834356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A7D4-4269-BA4C-D92F61E8C736}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UnitsinStructure!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RV, Van, Boat or Mobile Home</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>UnitsinStructure!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Black Householders</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>White, Non-Hispanic Householders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UnitsinStructure!$B$8:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.879271203213225E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8453454575834461E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A7D4-4269-BA4C-D92F61E8C736}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1507879232"/>
+        <c:axId val="1507878400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1507879232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507878400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1507878400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507879232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -1857,7 +3727,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2060,7 +3929,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2491,7 +4360,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2813,7 +4682,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2834,7 +4703,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2848,11 +4717,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Share of People's Racial Identities who Identify as Black Alone or In Combination (2020</a:t>
+              <a:t>Transportation</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Census)</a:t>
+              <a:t> Mode to Work by Black and White Workers</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2871,7 +4740,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2891,7 +4760,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -2899,11 +4768,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Racial Identity'!$B$18</c:f>
+              <c:f>TransporttoWork!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Share</c:v>
+                  <c:v>Share of Black Workers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2912,172 +4781,164 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Racial Identity'!$C$16:$L$16</c:f>
+              <c:f>TransporttoWork!$A$4:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Black or African American alone</c:v>
+                  <c:v>Car, truck, or van - carpooled</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Black or African American and White</c:v>
+                  <c:v>Car, truck, or van - drove alone</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Black and American Indian or Alaska Native</c:v>
+                  <c:v>Public transportation (excluding taxicab)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Black or African American and Asian</c:v>
+                  <c:v>Taxicab, motorcycle, bicycle, or other means</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Black and Some Other Combination of Races</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Black or African American; Some Other Race</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> Black or African American, American Indian or Alaska Native, and Some Other Race</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>White; Black or African American; Asian</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>White; Black or African American; Some Other Race</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Black and Some Other Combination of Races (total)</c:v>
+                  <c:v>Walked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Racial Identity'!$C$18:$L$18</c:f>
+              <c:f>TransporttoWork!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.7283603438657722</c:v>
+                  <c:v>9.807825484764543E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15529172805424038</c:v>
+                  <c:v>0.66742555401662051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.360300954070175E-2</c:v>
+                  <c:v>0.14199272853185596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0875112643217807E-2</c:v>
+                  <c:v>1.3270429362880887E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0235299166082594E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5817253364992633E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.065197179270787E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4595700247457481E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.8655576375677655E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6915792936733846E-2</c:v>
+                  <c:v>4.5178324099722993E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D96-4750-B569-6B7720BB7FC4}"/>
+              <c16:uniqueId val="{00000000-FFE8-450D-9D21-1A219CA7ECF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TransporttoWork!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Share of White, non-Hispanic Workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TransporttoWork!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Car, truck, or van - carpooled</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Car, truck, or van - drove alone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Public transportation (excluding taxicab)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Taxicab, motorcycle, bicycle, or other means</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TransporttoWork!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.3447325164821243E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6943000989955237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8004567187990046E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4769435911173233E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9043887573442675E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFE8-450D-9D21-1A219CA7ECF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:axId val="1808408208"/>
-        <c:axId val="1808411952"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="31555728"/>
+        <c:axId val="31556144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1808408208"/>
+        <c:axId val="31555728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3098,7 +4959,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3113,7 +4974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1808411952"/>
+        <c:crossAx val="31556144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3121,12 +4982,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1808411952"/>
+        <c:axId val="31556144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3142,7 +5003,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3157,7 +5018,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3172,7 +5033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1808408208"/>
+        <c:crossAx val="31555728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3184,15 +5045,39 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3236,7 +5121,7 @@
         <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3290,7 +5175,7 @@
         <cx:series layoutId="sunburst" uniqueId="{533C5A79-03DE-4BA2-A055-8A4B2F5378CA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Black Population</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3310,10 +5195,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.6</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3321,7 +5206,7 @@
     <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="treemap" uniqueId="{8B83914A-3197-437E-B569-23CABDE076CC}">
+        <cx:series layoutId="treemap" hidden="1" uniqueId="{8B83914A-3197-437E-B569-23CABDE076CC}" formatIdx="0">
           <cx:dataLabels pos="inEnd">
             <cx:visibility seriesName="0" categoryName="1" value="0"/>
           </cx:dataLabels>
@@ -3337,6 +5222,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3656,6 +5621,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4159,7 +6164,529 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4662,7 +7189,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5165,7 +7692,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5668,8 +8195,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5873,6 +8400,1016 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -6171,8 +9708,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6183,7 +9720,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6206,7 +9743,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6229,16 +9766,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6263,51 +9803,36 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6322,8 +9847,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6331,12 +9858,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -6346,13 +9870,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6371,16 +9895,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -6451,6 +9977,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -6482,8 +10014,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6538,7 +10070,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6566,18 +10098,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -6587,9 +10108,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -6605,7 +10129,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6621,7 +10145,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6635,7 +10159,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -6668,7 +10192,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -6677,12 +10201,18 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6693,19 +10223,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1">
-          <a:lumMod val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6728,7 +10246,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6751,16 +10269,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6785,51 +10306,36 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6844,8 +10350,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6853,12 +10361,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -6868,13 +10373,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6893,16 +10398,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -6973,6 +10480,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -7004,8 +10517,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7060,7 +10573,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -7088,18 +10601,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -7109,9 +10611,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -7127,7 +10632,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7143,7 +10648,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7157,7 +10662,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -7190,7 +10695,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -7199,12 +10704,18 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7215,18 +10726,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1">
-          <a:lumMod val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
@@ -7729,16 +11228,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>20637</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>573087</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>549275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7765,14 +11264,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>569913</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>608013</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>568325</xdr:rowOff>
     </xdr:to>
@@ -7805,6 +11304,129 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553684B9-5E0D-44BC-9A8B-98E11E89F398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CEAC41-54BB-4A76-A4F8-A4BF22BBEA75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1BC196-09F8-4695-B8F0-17F1B7787C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7963,7 +11585,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13049250" y="142875"/>
+              <a:off x="13046075" y="139700"/>
               <a:ext cx="4572000" cy="2990850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7997,7 +11619,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8046,8 +11668,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11696700" y="2000250"/>
-              <a:ext cx="4572000" cy="2740025"/>
+              <a:off x="13820775" y="2000250"/>
+              <a:ext cx="4572000" cy="9525"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8077,25 +11699,127 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8193" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648BF643-70DC-4608-B24F-A97BCCBF6A1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="736600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>570667</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>145536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256F71AE-DE94-4A8F-8A43-BE445D93FD44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="736600"/>
+          <a:ext cx="6666667" cy="4114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>282575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>244475</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53612709-AF33-4E09-A9FE-FCE2008D416C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A9ED102-4C35-4D5B-B2F6-3C25D6988724}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8107,7 +11831,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8413,10 +12137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA4F99D-F11C-4B51-BBC9-8709368647B0}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8424,189 +12148,528 @@
     <col min="1" max="5" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:5" ht="58.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="28">
         <v>52462</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="28">
         <v>5257</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="28">
         <v>109124</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="29">
         <v>2900</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="28">
         <v>67143</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="28">
         <v>19532</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="28">
         <v>81317</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="29">
         <v>4099</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="28">
         <v>61188</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="28">
         <v>12325</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="28">
         <v>83992</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="29">
         <v>2468</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="30">
+        <v>70107</v>
+      </c>
+      <c r="C6" s="30">
+        <v>19660</v>
+      </c>
+      <c r="D6" s="30">
+        <v>88946</v>
+      </c>
+      <c r="E6" s="31">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="28">
+        <v>49846</v>
+      </c>
+      <c r="C14" s="28">
+        <v>2006</v>
+      </c>
+      <c r="D14" s="28">
+        <v>101265</v>
+      </c>
+      <c r="E14" s="29">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="28">
+        <v>47074</v>
+      </c>
+      <c r="C15" s="28">
+        <v>8640</v>
+      </c>
+      <c r="D15" s="28">
+        <v>77807</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="28">
+        <v>54683</v>
+      </c>
+      <c r="C16" s="28">
+        <v>2765</v>
+      </c>
+      <c r="D16" s="28">
+        <v>76183</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="30">
+        <v>71050</v>
+      </c>
+      <c r="C17" s="30">
+        <v>4023</v>
+      </c>
+      <c r="D17" s="30">
+        <v>88341</v>
+      </c>
+      <c r="E17" s="31">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E92C88B-E51A-4891-86D1-5015B4F1E45E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE1CC61-0D65-4E9F-B009-9AB362FF1A69}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <f>C14/B14</f>
+        <v>0.24090344178561934</v>
+      </c>
+      <c r="C5" s="6">
+        <f>G14/F14</f>
+        <v>6.2677736572840578E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="34">
-        <v>70107</v>
-      </c>
-      <c r="C6" s="34">
-        <v>19660</v>
-      </c>
-      <c r="D6" s="34">
-        <v>88946</v>
-      </c>
-      <c r="E6" s="35">
-        <v>3171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" ref="B6:B9" si="0">C15/B15</f>
+        <v>0.19749547374773688</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" ref="C6:C9" si="1">G15/F15</f>
+        <v>7.8884083744240566E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16250893433049177</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>8.2885493822334122E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.11927509532582152</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>6.3579651447984345E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="66">
+        <f t="shared" si="0"/>
+        <v>0.20725015781365189</v>
+      </c>
+      <c r="C9" s="67">
+        <f t="shared" si="1"/>
+        <v>6.8541467882540327E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="32">
-        <v>49846</v>
-      </c>
-      <c r="C14" s="32">
-        <v>2006</v>
-      </c>
-      <c r="D14" s="32">
-        <v>101265</v>
-      </c>
-      <c r="E14" s="33">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="B14" s="34">
+        <v>139201</v>
+      </c>
+      <c r="C14" s="34">
+        <v>33534</v>
+      </c>
+      <c r="D14" s="34">
+        <v>2230</v>
+      </c>
+      <c r="E14" s="34">
+        <v>2473</v>
+      </c>
+      <c r="F14" s="34">
+        <v>1292995</v>
+      </c>
+      <c r="G14" s="34">
+        <v>81042</v>
+      </c>
+      <c r="H14" s="34">
+        <v>1267</v>
+      </c>
+      <c r="I14" s="34">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="32">
-        <v>47074</v>
-      </c>
-      <c r="C15" s="32">
-        <v>8640</v>
-      </c>
-      <c r="D15" s="32">
-        <v>77807</v>
-      </c>
-      <c r="E15" s="33">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="34">
+        <v>6628</v>
+      </c>
+      <c r="C15" s="34">
+        <v>1309</v>
+      </c>
+      <c r="D15" s="34">
+        <v>496</v>
+      </c>
+      <c r="E15" s="34">
+        <v>483</v>
+      </c>
+      <c r="F15" s="34">
+        <v>197936</v>
+      </c>
+      <c r="G15" s="34">
+        <v>15614</v>
+      </c>
+      <c r="H15" s="34">
+        <v>614</v>
+      </c>
+      <c r="I15" s="34">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="32">
-        <v>54683</v>
-      </c>
-      <c r="C16" s="32">
-        <v>2765</v>
-      </c>
-      <c r="D16" s="32">
-        <v>76183</v>
-      </c>
-      <c r="E16" s="33">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
+      <c r="B16" s="34">
+        <v>57363</v>
+      </c>
+      <c r="C16" s="34">
+        <v>9322</v>
+      </c>
+      <c r="D16" s="34">
+        <v>1736</v>
+      </c>
+      <c r="E16" s="34">
+        <v>1058</v>
+      </c>
+      <c r="F16" s="34">
+        <v>575541</v>
+      </c>
+      <c r="G16" s="34">
+        <v>47704</v>
+      </c>
+      <c r="H16" s="34">
+        <v>890</v>
+      </c>
+      <c r="I16" s="34">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="34">
-        <v>71050</v>
+        <v>23341</v>
       </c>
       <c r="C17" s="34">
-        <v>4023</v>
+        <v>2784</v>
       </c>
       <c r="D17" s="34">
-        <v>88341</v>
-      </c>
-      <c r="E17" s="35">
-        <v>1222</v>
+        <v>960</v>
+      </c>
+      <c r="E17" s="34">
+        <v>655</v>
+      </c>
+      <c r="F17" s="34">
+        <v>548383</v>
+      </c>
+      <c r="G17" s="34">
+        <v>34866</v>
+      </c>
+      <c r="H17" s="34">
+        <v>866</v>
+      </c>
+      <c r="I17" s="34">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="34">
+        <v>226533</v>
+      </c>
+      <c r="C18" s="34">
+        <v>46949</v>
+      </c>
+      <c r="D18" s="34">
+        <v>3025.5928344706299</v>
+      </c>
+      <c r="E18" s="34">
+        <v>2810.2325526546701</v>
+      </c>
+      <c r="F18" s="34">
+        <v>2614855</v>
+      </c>
+      <c r="G18" s="34">
+        <v>179226</v>
+      </c>
+      <c r="H18" s="34">
+        <v>1877.3228278588599</v>
+      </c>
+      <c r="I18" s="34">
+        <v>4102.3712654999899</v>
       </c>
     </row>
   </sheetData>
@@ -8615,12 +12678,867 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ABD136-B943-4560-9FDA-7DAF09475023}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.36328125" customWidth="1"/>
+    <col min="2" max="3" width="7.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="56">
+        <f>(A19+A14)/A$12</f>
+        <v>0.255785749032099</v>
+      </c>
+      <c r="C4" s="57">
+        <f>(D19+D14)/D$12</f>
+        <v>0.4398081805246033</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="56">
+        <f>(A20+A15)/A$12</f>
+        <v>0.25610560616258071</v>
+      </c>
+      <c r="C5" s="57">
+        <f>(D20+D15)/D$12</f>
+        <v>0.19509283325461699</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="56">
+        <f>(A21+A16)/A$12</f>
+        <v>0.10234095437371307</v>
+      </c>
+      <c r="C6" s="57">
+        <f>(D21+D16)/D$12</f>
+        <v>4.1312485083336944E-2</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="59">
+        <f>(A22+A17)/A$12</f>
+        <v>0.38576769043160719</v>
+      </c>
+      <c r="C7" s="60">
+        <f>(D22+D17)/D$12</f>
+        <v>0.32378650113744278</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="61"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>150067</v>
+      </c>
+      <c r="B12">
+        <v>1497.47621016162</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>1986034</v>
+      </c>
+      <c r="E12">
+        <v>643.40267329255005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>70031</v>
+      </c>
+      <c r="B13">
+        <v>927.74457691759096</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13">
+        <v>998515</v>
+      </c>
+      <c r="E13">
+        <v>358.36294451296197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>17256</v>
+      </c>
+      <c r="B14">
+        <v>968.26287752861799</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <v>436959</v>
+      </c>
+      <c r="E14">
+        <v>2937.7830076436899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>17068</v>
+      </c>
+      <c r="B15">
+        <v>1046.6350844492099</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>189505</v>
+      </c>
+      <c r="E15">
+        <v>2568.75553527384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>8658</v>
+      </c>
+      <c r="B16">
+        <v>658.71541654951398</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>37781</v>
+      </c>
+      <c r="E16">
+        <v>1357.7227257433699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>27049</v>
+      </c>
+      <c r="B17">
+        <v>1134.1895785096999</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17">
+        <v>334270</v>
+      </c>
+      <c r="E17">
+        <v>3207.7962840554601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>80036</v>
+      </c>
+      <c r="B18">
+        <v>984.92436257816303</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <v>987519</v>
+      </c>
+      <c r="E18">
+        <v>395.02025264535501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>21129</v>
+      </c>
+      <c r="B19">
+        <v>1043.2583572634301</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19">
+        <v>436515</v>
+      </c>
+      <c r="E19">
+        <v>3329.6273064714001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>21365</v>
+      </c>
+      <c r="B20">
+        <v>1277.50107632049</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20">
+        <v>197956</v>
+      </c>
+      <c r="E20">
+        <v>3021.8097226661998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>6700</v>
+      </c>
+      <c r="B21">
+        <v>699.04291713742396</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <v>44267</v>
+      </c>
+      <c r="E21">
+        <v>1435.1870958171301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>30842</v>
+      </c>
+      <c r="B22">
+        <v>1241.2070737793899</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22">
+        <v>308781</v>
+      </c>
+      <c r="E22">
+        <v>3219.5437564971799</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63369DA0-363B-4008-B2E9-E1A766666A9A}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.6328125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="72" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="71" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="45">
+        <f>A16/A$15</f>
+        <v>0.93322079282845338</v>
+      </c>
+      <c r="C3" s="46">
+        <f>D16/D$15</f>
+        <v>0.98189980784705155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="47">
+        <f>A17/A$15</f>
+        <v>6.6779207171546659E-2</v>
+      </c>
+      <c r="C4" s="48">
+        <f>D17/D$15</f>
+        <v>1.8100192152948471E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>85895</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1488.5422399112499</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15">
+        <v>1137115</v>
+      </c>
+      <c r="E15">
+        <v>3292.0554369572801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>80159</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1601.59108389127</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16">
+        <v>1116533</v>
+      </c>
+      <c r="E16">
+        <v>3380.28430756941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>5736</v>
+      </c>
+      <c r="B17" s="1">
+        <v>574.06881120646199</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17">
+        <v>20582</v>
+      </c>
+      <c r="E17">
+        <v>1083.0650949966</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D596BF7-1630-4CF8-A6EB-0588FBB08ACE}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="3" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="45">
+        <f>A24/A$23</f>
+        <v>5.8443448396297802E-2</v>
+      </c>
+      <c r="C3" s="46">
+        <f>D24/D$23</f>
+        <v>4.5040299354067094E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="45">
+        <f t="shared" ref="B4:C8" si="0">A25/A$23</f>
+        <v>0.35080039583212064</v>
+      </c>
+      <c r="C4" s="46">
+        <f>D25/D$23</f>
+        <v>0.64204060275345942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="45">
+        <f>(A27+A29+A30)/A$23</f>
+        <v>0.21493684149251993</v>
+      </c>
+      <c r="C5" s="46">
+        <f>(D27+D29+D30)/D$23</f>
+        <v>9.2863078932210019E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="45">
+        <f>(A26)/A$23</f>
+        <v>0.13750509342802258</v>
+      </c>
+      <c r="C6" s="46">
+        <f>(D26)/D$23</f>
+        <v>5.2485456616085446E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="45">
+        <f>(A28+A31)/A$23</f>
+        <v>0.23243494964782582</v>
+      </c>
+      <c r="C7" s="46">
+        <f>(D28+D31)/D$23</f>
+        <v>0.12911710776834356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="47">
+        <f>(A32+A33)/A$23</f>
+        <v>5.879271203213225E-3</v>
+      </c>
+      <c r="C8" s="48">
+        <f>(D32+D33)/D$23</f>
+        <v>3.8453454575834461E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="68"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="68"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="68"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="68"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="68"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="68"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="68"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="68"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="68"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="68"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>85895</v>
+      </c>
+      <c r="B23">
+        <v>1488.5422399112499</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23">
+        <v>1137115</v>
+      </c>
+      <c r="E23">
+        <v>3292.0554369572801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>5020</v>
+      </c>
+      <c r="B24">
+        <v>560.60770597629096</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24">
+        <v>51216</v>
+      </c>
+      <c r="E24">
+        <v>1326.7919957551701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>30132</v>
+      </c>
+      <c r="B25">
+        <v>1117.9351501764299</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25">
+        <v>730074</v>
+      </c>
+      <c r="E25">
+        <v>3127.1851560149098</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>11811</v>
+      </c>
+      <c r="B26">
+        <v>956.00784515609496</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26">
+        <v>59682</v>
+      </c>
+      <c r="E26">
+        <v>1787.7533386907701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2840</v>
+      </c>
+      <c r="B27">
+        <v>441.56200017664599</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27">
+        <v>19933</v>
+      </c>
+      <c r="E27">
+        <v>993.19434150623294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>8581</v>
+      </c>
+      <c r="B28">
+        <v>802.689230026166</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28">
+        <v>57732</v>
+      </c>
+      <c r="E28">
+        <v>1517.3707523212599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>6151</v>
+      </c>
+      <c r="B29">
+        <v>645.51142515063202</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29">
+        <v>35610</v>
+      </c>
+      <c r="E29">
+        <v>1303.00115118905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>9471</v>
+      </c>
+      <c r="B30">
+        <v>868.06393773730701</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30">
+        <v>50053</v>
+      </c>
+      <c r="E30">
+        <v>1648.5530018777099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>11384</v>
+      </c>
+      <c r="B31">
+        <v>914.32379384985904</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31">
+        <v>89089</v>
+      </c>
+      <c r="E31">
+        <v>1761.5203660474699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>36.4005494464026</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32">
+        <v>1886</v>
+      </c>
+      <c r="E32">
+        <v>312.86738404634002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>490</v>
+      </c>
+      <c r="B33">
+        <v>147.800541270998</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33">
+        <v>41840</v>
+      </c>
+      <c r="E33">
+        <v>1218.6069916096801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DD74AC-7B14-4C8A-84E8-6059B75DB471}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8629,169 +13547,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="43" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="37">
         <v>2010</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38">
         <v>2020</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>147950</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1931249</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>B4/C4</f>
         <v>7.6608453907290056E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>194857</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>2269675</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f>E4/F4</f>
         <v>8.585237974599888E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>10086</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>251133</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" ref="D5:D8" si="0">B5/C5</f>
         <v>4.0161985879991875E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>13432</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>275611</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" ref="G5:G7" si="1">E5/F5</f>
         <v>4.873535526521075E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>74797</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>795225</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>9.4057656638058415E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>97967</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>921130</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>0.10635523758861398</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>26069</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>713335</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>3.6545241716724963E-2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>43299</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>827957</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>5.2296194126023453E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>258902</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>3690942</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <f t="shared" si="0"/>
         <v>7.0145236636067435E-2</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <f>SUM(E4:E7)</f>
         <v>349555</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <f>SUM(F4:F7)</f>
         <v>4294373</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <f>E8/F8</f>
         <v>8.139837876216155E-2</v>
       </c>
@@ -8810,137 +13728,137 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="43" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="16"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f>E4-B4</f>
         <v>46907</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <f>B14/B4</f>
         <v>0.31704629942548157</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <f>F4-C4</f>
         <v>338426</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f>D14/C4</f>
         <v>0.17523685449157514</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <f>E5-B5</f>
         <v>3346</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f>B15/B5</f>
         <v>0.33174697600634545</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <f>F5-C5</f>
         <v>24478</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f>D15/C5</f>
         <v>9.74702647601072E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <f>E6-B6</f>
         <v>23170</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f>B16/B6</f>
         <v>0.3097717822907336</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <f>F6-C6</f>
         <v>125905</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f>D16/C6</f>
         <v>0.15832625986356064</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <f>E7-B7</f>
         <v>17230</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f>B17/B7</f>
         <v>0.66093827918217041</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <f>F7-C7</f>
         <v>114622</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f>D17/C7</f>
         <v>0.16068467129749697</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="18">
         <f>E8-B8</f>
         <v>90653</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="21">
         <f>B18/B8</f>
         <v>0.35014406995697211</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="22">
         <f>F8-C8</f>
         <v>603431</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="20">
         <f>D18/C8</f>
         <v>0.16348969991942436</v>
       </c>
@@ -8967,21 +13885,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9888BC98-F078-48BD-A3BD-24A6E80C418D}">
   <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="39.1796875" customWidth="1"/>
+    <col min="1" max="1" width="44.6328125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:45" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:45" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -8994,7 +13913,7 @@
       <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K2" t="s">
@@ -9100,7 +14019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -9113,7 +14032,7 @@
       <c r="I3">
         <v>33</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K3">
@@ -9220,7 +14139,7 @@
         <v>194857</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -9233,7 +14152,7 @@
       <c r="I4">
         <v>35</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K4">
@@ -9340,7 +14259,7 @@
         <v>13432</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -9353,7 +14272,7 @@
       <c r="I5">
         <v>53</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="K5">
@@ -9460,7 +14379,7 @@
         <v>97967</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -9476,7 +14395,7 @@
       <c r="I6">
         <v>61</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="K6">
@@ -9583,8 +14502,8 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="J7" s="25" t="s">
+    <row r="7" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="23" t="s">
         <v>40</v>
       </c>
       <c r="K7">
@@ -9720,100 +14639,107 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="C15" s="30" t="s">
+    <row r="8" spans="1:45" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:45" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:45" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:45" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:45" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:45" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:45" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="B16" s="26" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+    </row>
+    <row r="16" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="25" t="s">
         <v>41</v>
       </c>
       <c r="M16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="25">
         <f>K7</f>
         <v>254602</v>
       </c>
-      <c r="D17" s="27">
-        <f t="shared" ref="D17:L17" si="2">L7</f>
+      <c r="D17" s="25">
+        <f>L7</f>
         <v>54283</v>
       </c>
-      <c r="E17" s="27">
-        <f t="shared" si="2"/>
+      <c r="E17" s="25">
+        <f>M7</f>
         <v>4755</v>
       </c>
-      <c r="F17" s="27">
-        <f t="shared" si="2"/>
+      <c r="F17" s="25">
+        <f>N7</f>
         <v>7297</v>
       </c>
-      <c r="G17" s="27">
-        <f t="shared" si="2"/>
+      <c r="G17" s="25">
+        <f>O7</f>
         <v>1756</v>
       </c>
-      <c r="H17" s="27">
-        <f t="shared" si="2"/>
+      <c r="H17" s="25">
+        <f>P7</f>
         <v>5529</v>
       </c>
-      <c r="I17" s="27">
-        <f t="shared" si="2"/>
+      <c r="I17" s="25">
+        <f>Q7</f>
         <v>7219</v>
       </c>
-      <c r="J17" s="27">
-        <f t="shared" si="2"/>
+      <c r="J17" s="25">
+        <f>R7</f>
         <v>5102</v>
       </c>
-      <c r="K17" s="27">
-        <f t="shared" si="2"/>
+      <c r="K17" s="25">
+        <f>S7</f>
         <v>3099</v>
       </c>
-      <c r="L17" s="27">
-        <f t="shared" si="2"/>
+      <c r="L17" s="25">
+        <f>T7</f>
         <v>5913</v>
       </c>
       <c r="M17">
@@ -9821,174 +14747,179 @@
         <v>349555</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="27">
         <f>C17/$M$17</f>
         <v>0.7283603438657722</v>
       </c>
-      <c r="D18" s="29">
-        <f t="shared" ref="D18:L18" si="3">D17/$M$17</f>
+      <c r="D18" s="27">
+        <f t="shared" ref="D18:L18" si="2">D17/$M$17</f>
         <v>0.15529172805424038</v>
       </c>
-      <c r="E18" s="29">
-        <f t="shared" si="3"/>
+      <c r="E18" s="27">
+        <f t="shared" si="2"/>
         <v>1.360300954070175E-2</v>
       </c>
-      <c r="F18" s="29">
-        <f t="shared" si="3"/>
+      <c r="F18" s="27">
+        <f t="shared" si="2"/>
         <v>2.0875112643217807E-2</v>
       </c>
-      <c r="G18" s="29">
-        <f t="shared" si="3"/>
+      <c r="G18" s="27">
+        <f t="shared" si="2"/>
         <v>5.0235299166082594E-3</v>
       </c>
-      <c r="H18" s="29">
-        <f t="shared" si="3"/>
+      <c r="H18" s="27">
+        <f t="shared" si="2"/>
         <v>1.5817253364992633E-2</v>
       </c>
-      <c r="I18" s="29">
-        <f t="shared" si="3"/>
+      <c r="I18" s="27">
+        <f t="shared" si="2"/>
         <v>2.065197179270787E-2</v>
       </c>
-      <c r="J18" s="29">
-        <f t="shared" si="3"/>
+      <c r="J18" s="27">
+        <f t="shared" si="2"/>
         <v>1.4595700247457481E-2</v>
       </c>
-      <c r="K18" s="29">
-        <f t="shared" si="3"/>
+      <c r="K18" s="27">
+        <f t="shared" si="2"/>
         <v>8.8655576375677655E-3</v>
       </c>
-      <c r="L18" s="29">
-        <f t="shared" si="3"/>
+      <c r="L18" s="27">
+        <f t="shared" si="2"/>
         <v>1.6915792936733846E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
+    <row r="19" spans="1:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
+    <row r="21" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C21" s="65" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D22">
+      <c r="B22" s="4">
         <v>254602</v>
       </c>
-      <c r="E22" s="1">
+      <c r="C22" s="6">
         <v>0.7283603438657722</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D23">
+      <c r="B23" s="4">
         <v>54283</v>
       </c>
-      <c r="E23" s="1">
+      <c r="C23" s="6">
         <v>0.15529172805424038</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D24">
+      <c r="B24" s="4">
         <v>4755</v>
       </c>
-      <c r="E24" s="1">
+      <c r="C24" s="6">
         <v>1.360300954070175E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D25">
+      <c r="B25" s="4">
         <v>7297</v>
       </c>
-      <c r="E25" s="1">
+      <c r="C25" s="6">
         <v>2.0875112643217807E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D26">
+      <c r="B26" s="4">
         <v>1756</v>
       </c>
-      <c r="E26" s="1">
+      <c r="C26" s="6">
         <v>5.0235299166082594E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D27">
+      <c r="B27" s="4">
         <v>5529</v>
       </c>
-      <c r="E27" s="1">
+      <c r="C27" s="6">
         <v>1.5817253364992633E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D28">
+      <c r="B28" s="4">
         <v>7219</v>
       </c>
-      <c r="E28" s="1">
+      <c r="C28" s="6">
         <v>2.065197179270787E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D29">
+      <c r="B29" s="4">
         <v>5102</v>
       </c>
-      <c r="E29" s="1">
+      <c r="C29" s="6">
         <v>1.4595700247457481E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D30">
+      <c r="B30" s="4">
         <v>3099</v>
       </c>
-      <c r="E30" s="1">
+      <c r="C30" s="6">
         <v>8.8655576375677655E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D31">
+      <c r="B31" s="7">
         <v>5913</v>
       </c>
-      <c r="E31" s="1">
+      <c r="C31" s="8">
         <v>1.6915792936733846E-2</v>
       </c>
     </row>
@@ -10005,4 +14936,284 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBCE300-B904-4F02-B7AA-01D69977856E}">
+  <dimension ref="E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DCE5B2-B9BF-4717-8E9A-D51952CBE8F2}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="63"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="63"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="27">
+        <f>B18/B$17</f>
+        <v>9.807825484764543E-2</v>
+      </c>
+      <c r="C4" s="27">
+        <f>D18/D$17</f>
+        <v>8.3447325164821243E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="27">
+        <f>B19/B$17</f>
+        <v>0.66742555401662051</v>
+      </c>
+      <c r="C5" s="27">
+        <f>D19/D$17</f>
+        <v>0.6943000989955237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="42">
+        <f>B20/B$17</f>
+        <v>0.14199272853185596</v>
+      </c>
+      <c r="C6" s="42">
+        <f>D20/D$17</f>
+        <v>8.8004567187990046E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="27">
+        <f>B21/B$17</f>
+        <v>1.3270429362880887E-2</v>
+      </c>
+      <c r="C7" s="27">
+        <f>D21/D$17</f>
+        <v>2.4769435911173233E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="27">
+        <f>B22/B$17</f>
+        <v>4.5178324099722993E-2</v>
+      </c>
+      <c r="C8" s="27">
+        <f>D22/D$17</f>
+        <v>3.9043887573442675E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>115520</v>
+      </c>
+      <c r="C17">
+        <v>2097.4505953657199</v>
+      </c>
+      <c r="D17">
+        <v>1508149</v>
+      </c>
+      <c r="E17">
+        <v>5040.3784580128504</v>
+      </c>
+      <c r="F17">
+        <v>5040.3784580128504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <v>11330</v>
+      </c>
+      <c r="C18">
+        <v>924.25645791630802</v>
+      </c>
+      <c r="D18">
+        <v>125851</v>
+      </c>
+      <c r="E18">
+        <v>2866.7830402735399</v>
+      </c>
+      <c r="F18">
+        <v>6153.7337446464198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>77101</v>
+      </c>
+      <c r="C19">
+        <v>1993.6476619503301</v>
+      </c>
+      <c r="D19">
+        <v>1047108</v>
+      </c>
+      <c r="E19">
+        <v>6153.7337446464198</v>
+      </c>
+      <c r="F19">
+        <v>2866.7830402735399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>16403</v>
+      </c>
+      <c r="C20">
+        <v>1189.5688294504</v>
+      </c>
+      <c r="D20">
+        <v>132724</v>
+      </c>
+      <c r="E20">
+        <v>2411.1627900247599</v>
+      </c>
+      <c r="F20">
+        <v>2411.1627900247599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>1533</v>
+      </c>
+      <c r="C21">
+        <v>359.001392754959</v>
+      </c>
+      <c r="D21">
+        <v>37356</v>
+      </c>
+      <c r="E21">
+        <v>1373.7041166131801</v>
+      </c>
+      <c r="F21">
+        <v>1938.0882332855699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22">
+        <v>5219</v>
+      </c>
+      <c r="C22">
+        <v>667.69079670158703</v>
+      </c>
+      <c r="D22">
+        <v>58884</v>
+      </c>
+      <c r="E22">
+        <v>1938.0882332855699</v>
+      </c>
+      <c r="F22">
+        <v>1373.7041166131801</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/black_history_month_data.xlsx
+++ b/data/black_history_month_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SChildress\Documents\GitHub\heritage-month\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34265392-6F28-459E-9127-38F3BCD7BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F89646-C872-4E83-A2D3-2CC887EB07DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{6BF6366D-BBDF-40F5-8D39-4EF720CAF928}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="7" activeTab="12" xr2:uid="{6BF6366D-BBDF-40F5-8D39-4EF720CAF928}"/>
   </bookViews>
   <sheets>
     <sheet name="Median income" sheetId="4" r:id="rId1"/>
@@ -21,8 +21,12 @@
     <sheet name="Pop by County 2010 2020" sheetId="1" r:id="rId6"/>
     <sheet name="Racial Identity" sheetId="3" r:id="rId7"/>
     <sheet name="Median Age" sheetId="9" r:id="rId8"/>
-    <sheet name="TransporttoWork" sheetId="6" r:id="rId9"/>
-    <sheet name="Map" sheetId="10" r:id="rId10"/>
+    <sheet name="Computer" sheetId="14" r:id="rId9"/>
+    <sheet name="HealthInsurance" sheetId="16" r:id="rId10"/>
+    <sheet name="Occupation" sheetId="15" r:id="rId11"/>
+    <sheet name="TransporttoWork" sheetId="6" r:id="rId12"/>
+    <sheet name="Map" sheetId="10" r:id="rId13"/>
+    <sheet name="WomenGaveBirth" sheetId="13" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Pop by County 2010 2020'!$A$4:$A$7</definedName>
@@ -50,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="208">
   <si>
     <t>Region</t>
   </si>
@@ -313,12 +317,6 @@
   </si>
   <si>
     <t>Transportation Mode to Work</t>
-  </si>
-  <si>
-    <t>Share of Black Workers</t>
-  </si>
-  <si>
-    <t>Share of White, non-Hispanic Workers</t>
   </si>
   <si>
     <t>Estimate!!Total:!!Female:</t>
@@ -399,9 +397,6 @@
     <t>For Regional Population 18 and Older</t>
   </si>
   <si>
-    <t>Educational Attainment for Black and White, non-Hispanic People ages 18+, ACS table C15002, 2019 5 - year estimate</t>
-  </si>
-  <si>
     <t>Share of Workers by Mode of Transportation to Work</t>
   </si>
   <si>
@@ -420,12 +415,6 @@
     <t>Estimate!!Total:!!1.01 or more occupants per room</t>
   </si>
   <si>
-    <t>Median Age</t>
-  </si>
-  <si>
-    <t>Share of Black Persons in Poverty</t>
-  </si>
-  <si>
     <t>2019 5-year ACS Poverty by Black (table B17020B) and White, Non Hispanic Population table B17020H)</t>
   </si>
   <si>
@@ -535,6 +524,207 @@
   </si>
   <si>
     <t>Black householders are much more likely to live in a structure with 20+ Units.</t>
+  </si>
+  <si>
+    <t>This is actually an interactive web map, I just took a screenshot to put it in this notebook.</t>
+  </si>
+  <si>
+    <t>Share of  Persons in Poverty</t>
+  </si>
+  <si>
+    <t>Educational Attainment for Black and White, non-Hispanic People ages 18+, Regional, ACS table C15002, 2019 5 - year estimate</t>
+  </si>
+  <si>
+    <t>Black Workers</t>
+  </si>
+  <si>
+    <t>White, non-Hispanic Workers</t>
+  </si>
+  <si>
+    <t>Black Householder Median Income MOE</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>GEOID.x</t>
+  </si>
+  <si>
+    <t>state.x</t>
+  </si>
+  <si>
+    <t>variable.x</t>
+  </si>
+  <si>
+    <t>concept.x</t>
+  </si>
+  <si>
+    <t>census_geography.x</t>
+  </si>
+  <si>
+    <t>acs_type.x</t>
+  </si>
+  <si>
+    <t>year.x</t>
+  </si>
+  <si>
+    <t>GEOID.y</t>
+  </si>
+  <si>
+    <t>state.y</t>
+  </si>
+  <si>
+    <t>variable.y</t>
+  </si>
+  <si>
+    <t>concept.y</t>
+  </si>
+  <si>
+    <t>census_geography.y</t>
+  </si>
+  <si>
+    <t>acs_type.y</t>
+  </si>
+  <si>
+    <t>year.y</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>B13002B_001</t>
+  </si>
+  <si>
+    <t>WOMEN 15 TO 50 YEARS WHO HAD A BIRTH IN THE PAST 12 MONTHS BY MARITAL STATUS (BLACK OR AFRICAN AMERICAN ALONE)</t>
+  </si>
+  <si>
+    <t>acs5</t>
+  </si>
+  <si>
+    <t>B13002H_001</t>
+  </si>
+  <si>
+    <t>WOMEN 15 TO 50 YEARS WHO HAD A BIRTH IN THE PAST 12 MONTHS BY MARITAL STATUS (WHITE ALONE, NOT HISPANIC OR LATINO)</t>
+  </si>
+  <si>
+    <t>acs1</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Women who had a birth in the past 12 months:</t>
+  </si>
+  <si>
+    <t>B13002B_002</t>
+  </si>
+  <si>
+    <t>B13002H_002</t>
+  </si>
+  <si>
+    <t>Median Age by Race</t>
+  </si>
+  <si>
+    <t>White, non-Hispanic</t>
+  </si>
+  <si>
+    <t>Has a computer:With a broadband Internet subscription</t>
+  </si>
+  <si>
+    <t>Has a computer:With dial-up Internet subscription alone</t>
+  </si>
+  <si>
+    <t>Has a computer:Without an Internet subscription</t>
+  </si>
+  <si>
+    <t>No Computer</t>
+  </si>
+  <si>
+    <t>Share of Population</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Female:!!Management, business, science, and arts occupations</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Female:!!Natural resources, construction, and maintenance occupations</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Female:!!Production, transportation, and material moving occupations</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Female:!!Sales and office occupations</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Female:!!Service occupations</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Male:!!Management, business, science, and arts occupations</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Male:!!Natural resources, construction, and maintenance occupations</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Male:!!Production, transportation, and material moving occupations</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Male:!!Sales and office occupations</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Male:!!Service occupations</t>
+  </si>
+  <si>
+    <t>Management, business, science, and arts occupations</t>
+  </si>
+  <si>
+    <t>Natural resources, construction, and maintenance occupations</t>
+  </si>
+  <si>
+    <t>Production, transportation, and material moving occupations</t>
+  </si>
+  <si>
+    <t>Sales and office occupations</t>
+  </si>
+  <si>
+    <t>Service occupations</t>
+  </si>
+  <si>
+    <t>Share of Workers</t>
+  </si>
+  <si>
+    <t>Occupation Type</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!19 to 64 years:</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!19 to 64 years:!!No health insurance coverage</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!19 to 64 years:!!With health insurance coverage</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!65 years and over:</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!65 years and over:!!No health insurance coverage</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!65 years and over:!!With health insurance coverage</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Under 19 years:</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Under 19 years:!!No health insurance coverage</t>
+  </si>
+  <si>
+    <t>Estimate!!Total:!!Under 19 years:!!With health insurance coverage</t>
+  </si>
+  <si>
+    <t>No health insurance</t>
+  </si>
+  <si>
+    <t>health insurance</t>
   </si>
 </sst>
 </file>
@@ -547,7 +737,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +756,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -814,7 +1012,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -825,6 +1023,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -861,25 +1060,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -899,9 +1082,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,21 +1110,70 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1499,6 +1728,867 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Share</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Workers by Occupation and Race</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Occupation!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Occupation!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Management, business, science, and arts occupations</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Natural resources, construction, and maintenance occupations</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Production, transportation, and material moving occupations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sales and office occupations</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Service occupations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Occupation!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.30805807115810779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2827653597166242E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1855903959238514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19024935001483187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26327452930604267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEF4-46BD-8614-31F8F8785EA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Occupation!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>White, non-Hispanic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Occupation!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Management, business, science, and arts occupations</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Natural resources, construction, and maintenance occupations</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Production, transportation, and material moving occupations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sales and office occupations</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Service occupations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Occupation!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.49457032986527066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6754650999250135E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8407603022380913E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20221766598747201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12804975012562628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DEF4-46BD-8614-31F8F8785EA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1851992256"/>
+        <c:axId val="1851992672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1851992256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851992672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1851992672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851992256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Transportation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Mode to Work by Black and White Workers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TransporttoWork!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black Workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TransporttoWork!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Car, truck, or van - carpooled</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Car, truck, or van - drove alone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Public transportation (excluding taxicab)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Taxicab, motorcycle, bicycle, or other means</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TransporttoWork!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.807825484764543E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66742555401662051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14199272853185596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3270429362880887E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5178324099722993E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFE8-450D-9D21-1A219CA7ECF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TransporttoWork!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>White, non-Hispanic Workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TransporttoWork!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Car, truck, or van - carpooled</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Car, truck, or van - drove alone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Public transportation (excluding taxicab)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Taxicab, motorcycle, bicycle, or other means</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TransporttoWork!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.3447325164821243E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6943000989955237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8004567187990046E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4769435911173233E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9043887573442675E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFE8-450D-9D21-1A219CA7ECF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="31555728"/>
+        <c:axId val="31556144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="31555728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31556144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="31556144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31555728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1636,9 +2726,9 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Median income'!$A$3:$A$6</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1704,9 +2794,9 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Median income'!$A$3:$A$6</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4717,13 +5807,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Transportation</a:t>
+              <a:t>Median Age by Race </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Mode to Work by Black and White Workers</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4768,11 +5853,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TransporttoWork!$B$3</c:f>
+              <c:f>'Median Age'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Share of Black Workers</c:v>
+                  <c:v>Black</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4787,56 +5872,108 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TransporttoWork!$A$4:$A$8</c:f>
+              <c:f>'Median Age'!$A$3:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Car, truck, or van - carpooled</c:v>
+                  <c:v>King </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Car, truck, or van - drove alone</c:v>
+                  <c:v>Kitsap </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Public transportation (excluding taxicab)</c:v>
+                  <c:v>Pierce </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Taxicab, motorcycle, bicycle, or other means</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Walked</c:v>
+                  <c:v>Snohomish </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TransporttoWork!$B$4:$B$8</c:f>
+              <c:f>'Median Age'!$B$3:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.807825484764543E-2</c:v>
+                  <c:v>32.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66742555401662051</c:v>
+                  <c:v>29.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14199272853185596</c:v>
+                  <c:v>33.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3270429362880887E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5178324099722993E-2</c:v>
+                  <c:v>34.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FFE8-450D-9D21-1A219CA7ECF0}"/>
+              <c16:uniqueId val="{00000000-E05C-4F65-8248-1C85F77A5532}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4845,11 +5982,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>TransporttoWork!$C$3</c:f>
+              <c:f>'Median Age'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Share of White, non-Hispanic Workers</c:v>
+                  <c:v>White, non-Hispanic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4864,62 +6001,115 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TransporttoWork!$A$4:$A$8</c:f>
+              <c:f>'Median Age'!$A$3:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Car, truck, or van - carpooled</c:v>
+                  <c:v>King </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Car, truck, or van - drove alone</c:v>
+                  <c:v>Kitsap </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Public transportation (excluding taxicab)</c:v>
+                  <c:v>Pierce </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Taxicab, motorcycle, bicycle, or other means</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Walked</c:v>
+                  <c:v>Snohomish </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TransporttoWork!$C$4:$C$8</c:f>
+              <c:f>'Median Age'!$C$3:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.3447325164821243E-2</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6943000989955237</c:v>
+                  <c:v>43.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8004567187990046E-2</c:v>
+                  <c:v>40.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4769435911173233E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9043887573442675E-2</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FFE8-450D-9D21-1A219CA7ECF0}"/>
+              <c16:uniqueId val="{00000003-E05C-4F65-8248-1C85F77A5532}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4927,11 +6117,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="31555728"/>
-        <c:axId val="31556144"/>
+        <c:axId val="1852067136"/>
+        <c:axId val="1852055488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31555728"/>
+        <c:axId val="1852067136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4974,7 +6164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31556144"/>
+        <c:crossAx val="1852055488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4982,7 +6172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31556144"/>
+        <c:axId val="1852055488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5002,7 +6192,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5033,7 +6223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31555728"/>
+        <c:crossAx val="1852067136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5302,6 +6492,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7189,6 +8459,1014 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -11303,6 +13581,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>551086</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CFC42F2-5298-40C4-B1E2-ABD65A4CF454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="723900"/>
+          <a:ext cx="10914286" cy="4914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>74895</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E51B8F-E382-4D7E-BA36-2AA800468343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="723900"/>
+          <a:ext cx="10438095" cy="4914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11349,15 +13720,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>339725</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11390,15 +13761,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11668,8 +14039,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13820775" y="2000250"/>
-              <a:ext cx="4572000" cy="9525"/>
+              <a:off x="14154150" y="0"/>
+              <a:ext cx="4572000" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11708,13 +14079,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11752,48 +14123,40 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>570667</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>145536</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256F71AE-DE94-4A8F-8A43-BE445D93FD44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205E3E44-63F4-47FE-8A24-4A3C3755A571}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="736600"/>
-          <a:ext cx="6666667" cy="4114286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11803,16 +14166,57 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>803275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFCE471-4BA7-4B3F-AD29-29384CD86338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12140,7 +14544,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12154,87 +14558,87 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="58.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="29">
         <v>52462</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="29">
         <v>5257</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="29">
         <v>109124</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="30">
         <v>2900</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="29">
         <v>67143</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="29">
         <v>19532</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="29">
         <v>81317</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="30">
         <v>4099</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="29">
         <v>61188</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="29">
         <v>12325</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="29">
         <v>83992</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="30">
         <v>2468</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="31">
         <v>70107</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="31">
         <v>19660</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="31">
         <v>88946</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="32">
         <v>3171</v>
       </c>
     </row>
@@ -12242,92 +14646,92 @@
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="43" t="s">
-        <v>98</v>
+      <c r="A12" s="34" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="29">
         <v>49846</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="29">
         <v>2006</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="29">
         <v>101265</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="30">
         <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="29">
         <v>47074</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="29">
         <v>8640</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="29">
         <v>77807</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="30">
         <v>1241</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="29">
         <v>54683</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="29">
         <v>2765</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="29">
         <v>76183</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="30">
         <v>1030</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="31">
         <v>71050</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="31">
         <v>4023</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="31">
         <v>88341</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="32">
         <v>1222</v>
       </c>
     </row>
@@ -12343,17 +14747,17 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -12364,15 +14768,1199 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E92C88B-E51A-4891-86D1-5015B4F1E45E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4C6B81-E50F-42FA-817D-F0A059BEB3BE}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="72">
+        <f>B9/SUM(B$9:B$10)</f>
+        <v>7.7226599041483976E-2</v>
+      </c>
+      <c r="C2" s="72">
+        <f>C9/SUM(C$9:C$10)</f>
+        <v>3.8197613442537831E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="72">
+        <f>B10/SUM(B$9:B$10)</f>
+        <v>0.92277340095851601</v>
+      </c>
+      <c r="C3" s="72">
+        <f>C10/SUM(C$9:C$10)</f>
+        <v>0.9618023865574622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9">
+        <f>A23+A26+A29</f>
+        <v>17419</v>
+      </c>
+      <c r="C9">
+        <f>D23+D26+D29</f>
+        <v>99902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10">
+        <f>A24+A27+A30</f>
+        <v>208138</v>
+      </c>
+      <c r="C10">
+        <f>D24+D27+D30</f>
+        <v>2515497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>225557</v>
+      </c>
+      <c r="B21">
+        <v>3041.1400822717801</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <v>2615399</v>
+      </c>
+      <c r="E21">
+        <v>1798.3606423629301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>146957</v>
+      </c>
+      <c r="B22">
+        <v>1853.1362605054201</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22">
+        <v>1681978</v>
+      </c>
+      <c r="E22">
+        <v>1667.0362923463899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>15996</v>
+      </c>
+      <c r="B23">
+        <v>1103.13507785765</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23">
+        <v>88479</v>
+      </c>
+      <c r="E23">
+        <v>2575.2960994805999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>130961</v>
+      </c>
+      <c r="B24">
+        <v>1964.30394796732</v>
+      </c>
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24">
+        <v>1593499</v>
+      </c>
+      <c r="E24">
+        <v>3043.9779894079402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>18444</v>
+      </c>
+      <c r="B25">
+        <v>337.25657888320001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <v>435234</v>
+      </c>
+      <c r="E25">
+        <v>588.75291931335698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>288</v>
+      </c>
+      <c r="B26">
+        <v>144.533733086778</v>
+      </c>
+      <c r="C26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26">
+        <v>1147</v>
+      </c>
+      <c r="E26">
+        <v>223.00672635595501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>18156</v>
+      </c>
+      <c r="B27">
+        <v>355.75131763635102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27">
+        <v>434087</v>
+      </c>
+      <c r="E27">
+        <v>645.59197640615105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>60156</v>
+      </c>
+      <c r="B28">
+        <v>1858.5174198806999</v>
+      </c>
+      <c r="C28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28">
+        <v>498187</v>
+      </c>
+      <c r="E28">
+        <v>911.29413473367595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1135</v>
+      </c>
+      <c r="B29">
+        <v>371.807746019364</v>
+      </c>
+      <c r="C29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29">
+        <v>10276</v>
+      </c>
+      <c r="E29">
+        <v>864.90346282114001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>59021</v>
+      </c>
+      <c r="B30">
+        <v>1881.84643369219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30">
+        <v>487911</v>
+      </c>
+      <c r="E30">
+        <v>1248.4382243427201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5E2784-FCEB-48F8-AD41-9860FEEB7F7E}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46.36328125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="82"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="72">
+        <f>B12/B$17</f>
+        <v>0.30805807115810779</v>
+      </c>
+      <c r="C3" s="72">
+        <f>C12/C$17</f>
+        <v>0.49457032986527066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="72">
+        <f t="shared" ref="B4:C4" si="0">B13/B$17</f>
+        <v>5.2827653597166242E-2</v>
+      </c>
+      <c r="C4" s="72">
+        <f t="shared" si="0"/>
+        <v>7.6754650999250135E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="72">
+        <f t="shared" ref="B5:C5" si="1">B14/B$17</f>
+        <v>0.1855903959238514</v>
+      </c>
+      <c r="C5" s="72">
+        <f t="shared" si="1"/>
+        <v>9.8407603022380913E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="72">
+        <f t="shared" ref="B6:C6" si="2">B15/B$17</f>
+        <v>0.19024935001483187</v>
+      </c>
+      <c r="C6" s="72">
+        <f t="shared" si="2"/>
+        <v>0.20221766598747201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="72">
+        <f t="shared" ref="B7:C7" si="3">B16/B$17</f>
+        <v>0.26327452930604267</v>
+      </c>
+      <c r="C7" s="72">
+        <f t="shared" si="3"/>
+        <v>0.12804975012562628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12">
+        <f>A26+A32</f>
+        <v>35309</v>
+      </c>
+      <c r="C12">
+        <f>D26+D32</f>
+        <v>699773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B16" si="4">A27+A33</f>
+        <v>6055</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C16" si="5">D27+D33</f>
+        <v>108601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="4"/>
+        <v>21272</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="5"/>
+        <v>139238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>21806</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="5"/>
+        <v>286120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>30176</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="5"/>
+        <v>181179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B12:B16)</f>
+        <v>114618</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C12:C16)</f>
+        <v>1414911</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>114618</v>
+      </c>
+      <c r="B24">
+        <v>1994.7847001619</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>1414911</v>
+      </c>
+      <c r="E24">
+        <v>4379.8888113741004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>51775</v>
+      </c>
+      <c r="B25">
+        <v>1322.33014032049</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>651371</v>
+      </c>
+      <c r="E25">
+        <v>3197.79564700435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>17383</v>
+      </c>
+      <c r="B26">
+        <v>1009.39239149104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26">
+        <v>334307</v>
+      </c>
+      <c r="E26">
+        <v>3168.9331012187699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>469</v>
+      </c>
+      <c r="B27">
+        <v>177.194808050349</v>
+      </c>
+      <c r="C27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27">
+        <v>5784</v>
+      </c>
+      <c r="E27">
+        <v>546.91407003294398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>4386</v>
+      </c>
+      <c r="B28">
+        <v>588.71215377296198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28">
+        <v>30606</v>
+      </c>
+      <c r="E28">
+        <v>1222.0331419401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>12194</v>
+      </c>
+      <c r="B29">
+        <v>838.86888129194494</v>
+      </c>
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29">
+        <v>174300</v>
+      </c>
+      <c r="E29">
+        <v>2800.4174688785201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>17343</v>
+      </c>
+      <c r="B30">
+        <v>1046.4521011494001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30">
+        <v>106374</v>
+      </c>
+      <c r="E30">
+        <v>2273.4165918282602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>62843</v>
+      </c>
+      <c r="B31">
+        <v>1354.0011078282</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31">
+        <v>763540</v>
+      </c>
+      <c r="E31">
+        <v>3054.0243941396402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>17926</v>
+      </c>
+      <c r="B32">
+        <v>1008.39873066164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32">
+        <v>365466</v>
+      </c>
+      <c r="E32">
+        <v>3552.9734026586798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>5586</v>
+      </c>
+      <c r="B33">
+        <v>605.79947177263205</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33">
+        <v>102817</v>
+      </c>
+      <c r="E33">
+        <v>2287.4269387239501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>16886</v>
+      </c>
+      <c r="B34">
+        <v>1101.8847489642501</v>
+      </c>
+      <c r="C34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34">
+        <v>108632</v>
+      </c>
+      <c r="E34">
+        <v>2217.4927282857102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>9612</v>
+      </c>
+      <c r="B35">
+        <v>770.78855725808501</v>
+      </c>
+      <c r="C35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35">
+        <v>111820</v>
+      </c>
+      <c r="E35">
+        <v>2286.1360414463502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>12833</v>
+      </c>
+      <c r="B36">
+        <v>977.38119482625598</v>
+      </c>
+      <c r="C36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36">
+        <v>74805</v>
+      </c>
+      <c r="E36">
+        <v>2069.47771188771</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DCE5B2-B9BF-4717-8E9A-D51952CBE8F2}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="68"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="40"/>
+      <c r="B2" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="74"/>
+    </row>
+    <row r="3" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="5">
+        <f>B18/B$17</f>
+        <v>9.807825484764543E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <f>D18/D$17</f>
+        <v>8.3447325164821243E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B19/B$17</f>
+        <v>0.66742555401662051</v>
+      </c>
+      <c r="C5" s="6">
+        <f>D19/D$17</f>
+        <v>0.6943000989955237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="69">
+        <f>B20/B$17</f>
+        <v>0.14199272853185596</v>
+      </c>
+      <c r="C6" s="70">
+        <f>D20/D$17</f>
+        <v>8.8004567187990046E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="5">
+        <f>B21/B$17</f>
+        <v>1.3270429362880887E-2</v>
+      </c>
+      <c r="C7" s="6">
+        <f>D21/D$17</f>
+        <v>2.4769435911173233E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="8">
+        <f>B22/B$17</f>
+        <v>4.5178324099722993E-2</v>
+      </c>
+      <c r="C8" s="9">
+        <f>D22/D$17</f>
+        <v>3.9043887573442675E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>115520</v>
+      </c>
+      <c r="C17">
+        <v>2097.4505953657199</v>
+      </c>
+      <c r="D17">
+        <v>1508149</v>
+      </c>
+      <c r="E17">
+        <v>5040.3784580128504</v>
+      </c>
+      <c r="F17">
+        <v>5040.3784580128504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <v>11330</v>
+      </c>
+      <c r="C18">
+        <v>924.25645791630802</v>
+      </c>
+      <c r="D18">
+        <v>125851</v>
+      </c>
+      <c r="E18">
+        <v>2866.7830402735399</v>
+      </c>
+      <c r="F18">
+        <v>6153.7337446464198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>77101</v>
+      </c>
+      <c r="C19">
+        <v>1993.6476619503301</v>
+      </c>
+      <c r="D19">
+        <v>1047108</v>
+      </c>
+      <c r="E19">
+        <v>6153.7337446464198</v>
+      </c>
+      <c r="F19">
+        <v>2866.7830402735399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>16403</v>
+      </c>
+      <c r="C20">
+        <v>1189.5688294504</v>
+      </c>
+      <c r="D20">
+        <v>132724</v>
+      </c>
+      <c r="E20">
+        <v>2411.1627900247599</v>
+      </c>
+      <c r="F20">
+        <v>2411.1627900247599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>1533</v>
+      </c>
+      <c r="C21">
+        <v>359.001392754959</v>
+      </c>
+      <c r="D21">
+        <v>37356</v>
+      </c>
+      <c r="E21">
+        <v>1373.7041166131801</v>
+      </c>
+      <c r="F21">
+        <v>1938.0882332855699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22">
+        <v>5219</v>
+      </c>
+      <c r="C22">
+        <v>667.69079670158703</v>
+      </c>
+      <c r="D22">
+        <v>58884</v>
+      </c>
+      <c r="E22">
+        <v>1938.0882332855699</v>
+      </c>
+      <c r="F22">
+        <v>1373.7041166131801</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E92C88B-E51A-4891-86D1-5015B4F1E45E}">
+  <dimension ref="D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7237359-9440-4F4F-811B-5BE8CA460CD1}">
+  <dimension ref="A2:T6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="71.7265625" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" t="s">
+        <v>159</v>
+      </c>
+      <c r="S2" t="s">
+        <v>160</v>
+      </c>
+      <c r="T2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3">
+        <v>59103</v>
+      </c>
+      <c r="G3">
+        <v>1115.06681414165</v>
+      </c>
+      <c r="H3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3">
+        <v>2019</v>
+      </c>
+      <c r="L3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" t="s">
+        <v>166</v>
+      </c>
+      <c r="O3">
+        <v>608233</v>
+      </c>
+      <c r="P3">
+        <v>2386.6987660783702</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4">
+        <v>4118</v>
+      </c>
+      <c r="G4">
+        <v>514.84172325094198</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4">
+        <v>2019</v>
+      </c>
+      <c r="L4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" t="s">
+        <v>172</v>
+      </c>
+      <c r="O4">
+        <v>29406</v>
+      </c>
+      <c r="P4">
+        <v>2811.8559707068898</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>167</v>
+      </c>
+      <c r="R4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" t="s">
+        <v>168</v>
+      </c>
+      <c r="T4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F6" s="72">
+        <f>F4/F3</f>
+        <v>6.9674974197587267E-2</v>
+      </c>
+      <c r="O6" s="72">
+        <f>O4/O3</f>
+        <v>4.8346604015237583E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12382,14 +15970,13 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.6328125" customWidth="1"/>
     <col min="4" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
@@ -12397,105 +15984,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
-        <v>109</v>
+      <c r="A1" s="35" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="36"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="40"/>
+      <c r="B3" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="74"/>
+    </row>
+    <row r="4" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="63">
         <f>C14/B14</f>
         <v>0.24090344178561934</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="64">
         <f>G14/F14</f>
         <v>6.2677736572840578E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="36">
         <f t="shared" ref="B6:B9" si="0">C15/B15</f>
         <v>0.19749547374773688</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="37">
         <f t="shared" ref="C6:C9" si="1">G15/F15</f>
         <v>7.8884083744240566E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="36">
         <f t="shared" si="0"/>
         <v>0.16250893433049177</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="37">
         <f t="shared" si="1"/>
         <v>8.2885493822334122E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="38">
         <f t="shared" si="0"/>
         <v>0.11927509532582152</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="39">
         <f t="shared" si="1"/>
         <v>6.3579651447984345E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="65">
         <f t="shared" si="0"/>
         <v>0.20725015781365189</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="66">
         <f t="shared" si="1"/>
         <v>6.8541467882540327E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>119</v>
+      <c r="A11" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -12531,28 +16118,28 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="33">
         <v>139201</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>33534</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <v>2230</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="33">
         <v>2473</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="33">
         <v>1292995</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="33">
         <v>81042</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="33">
         <v>1267</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="33">
         <v>2514</v>
       </c>
     </row>
@@ -12560,28 +16147,28 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <v>6628</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="33">
         <v>1309</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <v>496</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="33">
         <v>483</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="33">
         <v>197936</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="33">
         <v>15614</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="33">
         <v>614</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <v>1313</v>
       </c>
     </row>
@@ -12589,28 +16176,28 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="33">
         <v>57363</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="33">
         <v>9322</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="33">
         <v>1736</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="33">
         <v>1058</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="33">
         <v>575541</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="33">
         <v>47704</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="33">
         <v>890</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="33">
         <v>2193</v>
       </c>
     </row>
@@ -12618,28 +16205,28 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <v>23341</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="33">
         <v>2784</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="33">
         <v>960</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <v>655</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="33">
         <v>548383</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <v>34866</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="33">
         <v>866</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <v>1994</v>
       </c>
     </row>
@@ -12647,43 +16234,47 @@
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <v>226533</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="33">
         <v>46949</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <v>3025.5928344706299</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <v>2810.2325526546701</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="33">
         <v>2614855</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="33">
         <v>179226</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="33">
         <v>1877.3228278588599</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="33">
         <v>4102.3712654999899</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ABD136-B943-4560-9FDA-7DAF09475023}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12693,323 +16284,343 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="46">
+        <f>(A23+A18)/A$16</f>
+        <v>0.255785749032099</v>
+      </c>
+      <c r="C4" s="47">
+        <f>(D23+D18)/D$16</f>
+        <v>0.4398081805246033</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="46">
+        <f>(A24+A19)/A$16</f>
+        <v>0.25610560616258071</v>
+      </c>
+      <c r="C5" s="47">
+        <f>(D24+D19)/D$16</f>
+        <v>0.19509283325461699</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="46">
+        <f>(A25+A20)/A$16</f>
+        <v>0.10234095437371307</v>
+      </c>
+      <c r="C6" s="47">
+        <f>(D25+D20)/D$16</f>
+        <v>4.1312485083336944E-2</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="49">
+        <f>(A26+A21)/A$16</f>
+        <v>0.38576769043160719</v>
+      </c>
+      <c r="C7" s="50">
+        <f>(D26+D21)/D$16</f>
+        <v>0.32378650113744278</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="51"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="57"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="57"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="51"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="57"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="57"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="51"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="56">
-        <f>(A19+A14)/A$12</f>
-        <v>0.255785749032099</v>
-      </c>
-      <c r="C4" s="57">
-        <f>(D19+D14)/D$12</f>
-        <v>0.4398081805246033</v>
-      </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-    </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="56">
-        <f>(A20+A15)/A$12</f>
-        <v>0.25610560616258071</v>
-      </c>
-      <c r="C5" s="57">
-        <f>(D20+D15)/D$12</f>
-        <v>0.19509283325461699</v>
-      </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="56">
-        <f>(A21+A16)/A$12</f>
-        <v>0.10234095437371307</v>
-      </c>
-      <c r="C6" s="57">
-        <f>(D21+D16)/D$12</f>
-        <v>4.1312485083336944E-2</v>
-      </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-    </row>
-    <row r="7" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="59">
-        <f>(A22+A17)/A$12</f>
-        <v>0.38576769043160719</v>
-      </c>
-      <c r="C7" s="60">
-        <f>(D22+D17)/D$12</f>
-        <v>0.32378650113744278</v>
-      </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="61"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>69</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>70</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>67</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E15" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>150067</v>
-      </c>
-      <c r="B12">
-        <v>1497.47621016162</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12">
-        <v>1986034</v>
-      </c>
-      <c r="E12">
-        <v>643.40267329255005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>70031</v>
-      </c>
-      <c r="B13">
-        <v>927.74457691759096</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13">
-        <v>998515</v>
-      </c>
-      <c r="E13">
-        <v>358.36294451296197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>17256</v>
-      </c>
-      <c r="B14">
-        <v>968.26287752861799</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14">
-        <v>436959</v>
-      </c>
-      <c r="E14">
-        <v>2937.7830076436899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>17068</v>
-      </c>
-      <c r="B15">
-        <v>1046.6350844492099</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15">
-        <v>189505</v>
-      </c>
-      <c r="E15">
-        <v>2568.75553527384</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>8658</v>
+        <v>150067</v>
       </c>
       <c r="B16">
-        <v>658.71541654951398</v>
+        <v>1497.47621016162</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>37781</v>
+        <v>1986034</v>
       </c>
       <c r="E16">
-        <v>1357.7227257433699</v>
+        <v>643.40267329255005</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>27049</v>
+        <v>70031</v>
       </c>
       <c r="B17">
-        <v>1134.1895785096999</v>
+        <v>927.74457691759096</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D17">
-        <v>334270</v>
+        <v>998515</v>
       </c>
       <c r="E17">
-        <v>3207.7962840554601</v>
+        <v>358.36294451296197</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>80036</v>
+        <v>17256</v>
       </c>
       <c r="B18">
-        <v>984.92436257816303</v>
+        <v>968.26287752861799</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D18">
-        <v>987519</v>
+        <v>436959</v>
       </c>
       <c r="E18">
-        <v>395.02025264535501</v>
+        <v>2937.7830076436899</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>21129</v>
+        <v>17068</v>
       </c>
       <c r="B19">
-        <v>1043.2583572634301</v>
+        <v>1046.6350844492099</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D19">
-        <v>436515</v>
+        <v>189505</v>
       </c>
       <c r="E19">
-        <v>3329.6273064714001</v>
+        <v>2568.75553527384</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>21365</v>
+        <v>8658</v>
       </c>
       <c r="B20">
-        <v>1277.50107632049</v>
+        <v>658.71541654951398</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D20">
-        <v>197956</v>
+        <v>37781</v>
       </c>
       <c r="E20">
-        <v>3021.8097226661998</v>
+        <v>1357.7227257433699</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>6700</v>
+        <v>27049</v>
       </c>
       <c r="B21">
-        <v>699.04291713742396</v>
+        <v>1134.1895785096999</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D21">
-        <v>44267</v>
+        <v>334270</v>
       </c>
       <c r="E21">
-        <v>1435.1870958171301</v>
+        <v>3207.7962840554601</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
+        <v>80036</v>
+      </c>
+      <c r="B22">
+        <v>984.92436257816303</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22">
+        <v>987519</v>
+      </c>
+      <c r="E22">
+        <v>395.02025264535501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21129</v>
+      </c>
+      <c r="B23">
+        <v>1043.2583572634301</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23">
+        <v>436515</v>
+      </c>
+      <c r="E23">
+        <v>3329.6273064714001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>21365</v>
+      </c>
+      <c r="B24">
+        <v>1277.50107632049</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24">
+        <v>197956</v>
+      </c>
+      <c r="E24">
+        <v>3021.8097226661998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>6700</v>
+      </c>
+      <c r="B25">
+        <v>699.04291713742396</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25">
+        <v>44267</v>
+      </c>
+      <c r="E25">
+        <v>1435.1870958171301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>30842</v>
       </c>
-      <c r="B22">
+      <c r="B26">
         <v>1241.2070737793899</v>
       </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22">
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26">
         <v>308781</v>
       </c>
-      <c r="E22">
+      <c r="E26">
         <v>3219.5437564971799</v>
       </c>
     </row>
@@ -13027,75 +16638,75 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" style="1" customWidth="1"/>
     <col min="2" max="3" width="17.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="72" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="71" t="s">
-        <v>123</v>
+    <row r="1" spans="1:5" s="59" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="58" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="45">
+      <c r="B3" s="36">
         <f>A16/A$15</f>
         <v>0.93322079282845338</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="37">
         <f>D16/D$15</f>
         <v>0.98189980784705155</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="47">
+      <c r="A4" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="38">
         <f>A17/A$15</f>
         <v>6.6779207171546659E-2</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="39">
         <f>D17/D$15</f>
         <v>1.8100192152948471E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="72" t="s">
-        <v>124</v>
+      <c r="A6" s="59" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>70</v>
@@ -13104,7 +16715,7 @@
         <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
         <v>72</v>
@@ -13127,7 +16738,7 @@
         <v>3292.0554369572801</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>80159</v>
       </c>
@@ -13135,7 +16746,7 @@
         <v>1601.59108389127</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16">
         <v>1116533</v>
@@ -13144,7 +16755,7 @@
         <v>3380.28430756941</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>5736</v>
       </c>
@@ -13152,7 +16763,7 @@
         <v>574.06881120646199</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D17">
         <v>20582</v>
@@ -13170,8 +16781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D596BF7-1630-4CF8-A6EB-0588FBB08ACE}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13181,146 +16792,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="A1" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>113</v>
+      <c r="A2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="45">
+      <c r="A3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="36">
         <f>A24/A$23</f>
         <v>5.8443448396297802E-2</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="37">
         <f>D24/D$23</f>
         <v>4.5040299354067094E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="45">
-        <f t="shared" ref="B4:C8" si="0">A25/A$23</f>
+      <c r="A4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="36">
+        <f t="shared" ref="B4" si="0">A25/A$23</f>
         <v>0.35080039583212064</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="37">
         <f>D25/D$23</f>
         <v>0.64204060275345942</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="45">
+      <c r="A5" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="36">
         <f>(A27+A29+A30)/A$23</f>
         <v>0.21493684149251993</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="37">
         <f>(D27+D29+D30)/D$23</f>
         <v>9.2863078932210019E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="45">
+      <c r="A6" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="36">
         <f>(A26)/A$23</f>
         <v>0.13750509342802258</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="37">
         <f>(D26)/D$23</f>
         <v>5.2485456616085446E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="45">
+      <c r="A7" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="36">
         <f>(A28+A31)/A$23</f>
         <v>0.23243494964782582</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="37">
         <f>(D28+D31)/D$23</f>
         <v>0.12911710776834356</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="47">
+      <c r="A8" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="38">
         <f>(A32+A33)/A$23</f>
         <v>5.879271203213225E-3</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="39">
         <f>(D32+D33)/D$23</f>
         <v>3.8453454575834461E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="68"/>
+      <c r="A9" s="55"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
+      <c r="A10" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="69" t="s">
-        <v>145</v>
+      <c r="A11" s="56" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="68"/>
+      <c r="A12" s="55"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="68"/>
+      <c r="A13" s="55"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
+      <c r="A14" s="55"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="68"/>
+      <c r="A15" s="55"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="68"/>
+      <c r="A16" s="55"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="68"/>
+      <c r="A17" s="55"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="68"/>
+      <c r="A18" s="55"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="68"/>
+      <c r="A19" s="55"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="68"/>
+      <c r="A20" s="55"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -13365,7 +16976,7 @@
         <v>560.60770597629096</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D24">
         <v>51216</v>
@@ -13382,7 +16993,7 @@
         <v>1117.9351501764299</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D25">
         <v>730074</v>
@@ -13399,7 +17010,7 @@
         <v>956.00784515609496</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D26">
         <v>59682</v>
@@ -13416,7 +17027,7 @@
         <v>441.56200017664599</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D27">
         <v>19933</v>
@@ -13433,7 +17044,7 @@
         <v>802.689230026166</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D28">
         <v>57732</v>
@@ -13450,7 +17061,7 @@
         <v>645.51142515063202</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D29">
         <v>35610</v>
@@ -13467,7 +17078,7 @@
         <v>868.06393773730701</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D30">
         <v>50053</v>
@@ -13484,7 +17095,7 @@
         <v>914.32379384985904</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D31">
         <v>89089</v>
@@ -13501,7 +17112,7 @@
         <v>36.4005494464026</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D32">
         <v>1886</v>
@@ -13518,7 +17129,7 @@
         <v>147.800541270998</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D33">
         <v>41840</v>
@@ -13547,48 +17158,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="37">
+      <c r="B2" s="76">
         <v>2010</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77">
         <v>2020</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
@@ -13613,7 +17224,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
@@ -13638,7 +17249,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
@@ -13663,7 +17274,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
@@ -13688,28 +17299,28 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>258902</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="20">
         <v>3690942</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <f t="shared" si="0"/>
         <v>7.0145236636067435E-2</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="19">
         <f>SUM(E4:E7)</f>
         <v>349555</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="20">
         <f>SUM(F4:F7)</f>
         <v>4294373</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="21">
         <f>E8/F8</f>
         <v>8.139837876216155E-2</v>
       </c>
@@ -13728,38 +17339,38 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
     </row>
     <row r="13" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="3">
@@ -13770,7 +17381,7 @@
         <f>B14/B4</f>
         <v>0.31704629942548157</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="16">
         <f>F4-C4</f>
         <v>338426</v>
       </c>
@@ -13780,7 +17391,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3">
@@ -13791,7 +17402,7 @@
         <f>B15/B5</f>
         <v>0.33174697600634545</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="16">
         <f>F5-C5</f>
         <v>24478</v>
       </c>
@@ -13801,7 +17412,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="3">
@@ -13812,7 +17423,7 @@
         <f>B16/B6</f>
         <v>0.3097717822907336</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="16">
         <f>F6-C6</f>
         <v>125905</v>
       </c>
@@ -13822,7 +17433,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="3">
@@ -13833,7 +17444,7 @@
         <f>B17/B7</f>
         <v>0.66093827918217041</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="16">
         <f>F7-C7</f>
         <v>114622</v>
       </c>
@@ -13843,22 +17454,22 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <f>E8-B8</f>
         <v>90653</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="22">
         <f>B18/B8</f>
         <v>0.35014406995697211</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="23">
         <f>F8-C8</f>
         <v>603431</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="21">
         <f>D18/C8</f>
         <v>0.16348969991942436</v>
       </c>
@@ -13913,7 +17524,7 @@
       <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="K2" t="s">
@@ -14032,7 +17643,7 @@
       <c r="I3">
         <v>33</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K3">
@@ -14152,7 +17763,7 @@
       <c r="I4">
         <v>35</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K4">
@@ -14272,7 +17883,7 @@
       <c r="I5">
         <v>53</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K5">
@@ -14395,7 +18006,7 @@
       <c r="I6">
         <v>61</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="K6">
@@ -14503,7 +18114,7 @@
       </c>
     </row>
     <row r="7" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="24" t="s">
         <v>40</v>
       </c>
       <c r="K7">
@@ -14647,51 +18258,51 @@
     <row r="13" spans="1:45" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:45" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="16" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="26" t="s">
         <v>41</v>
       </c>
       <c r="M16" t="s">
@@ -14699,47 +18310,47 @@
       </c>
     </row>
     <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="25">
-        <f>K7</f>
+      <c r="C17" s="26">
+        <f t="shared" ref="C17:L17" si="2">K7</f>
         <v>254602</v>
       </c>
-      <c r="D17" s="25">
-        <f>L7</f>
+      <c r="D17" s="26">
+        <f t="shared" si="2"/>
         <v>54283</v>
       </c>
-      <c r="E17" s="25">
-        <f>M7</f>
+      <c r="E17" s="26">
+        <f t="shared" si="2"/>
         <v>4755</v>
       </c>
-      <c r="F17" s="25">
-        <f>N7</f>
+      <c r="F17" s="26">
+        <f t="shared" si="2"/>
         <v>7297</v>
       </c>
-      <c r="G17" s="25">
-        <f>O7</f>
+      <c r="G17" s="26">
+        <f t="shared" si="2"/>
         <v>1756</v>
       </c>
-      <c r="H17" s="25">
-        <f>P7</f>
+      <c r="H17" s="26">
+        <f t="shared" si="2"/>
         <v>5529</v>
       </c>
-      <c r="I17" s="25">
-        <f>Q7</f>
+      <c r="I17" s="26">
+        <f t="shared" si="2"/>
         <v>7219</v>
       </c>
-      <c r="J17" s="25">
-        <f>R7</f>
+      <c r="J17" s="26">
+        <f t="shared" si="2"/>
         <v>5102</v>
       </c>
-      <c r="K17" s="25">
-        <f>S7</f>
+      <c r="K17" s="26">
+        <f t="shared" si="2"/>
         <v>3099</v>
       </c>
-      <c r="L17" s="25">
-        <f>T7</f>
+      <c r="L17" s="26">
+        <f t="shared" si="2"/>
         <v>5913</v>
       </c>
       <c r="M17">
@@ -14748,53 +18359,53 @@
       </c>
     </row>
     <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="28">
         <f>C17/$M$17</f>
         <v>0.7283603438657722</v>
       </c>
-      <c r="D18" s="27">
-        <f t="shared" ref="D18:L18" si="2">D17/$M$17</f>
+      <c r="D18" s="28">
+        <f t="shared" ref="D18:L18" si="3">D17/$M$17</f>
         <v>0.15529172805424038</v>
       </c>
-      <c r="E18" s="27">
-        <f t="shared" si="2"/>
+      <c r="E18" s="28">
+        <f t="shared" si="3"/>
         <v>1.360300954070175E-2</v>
       </c>
-      <c r="F18" s="27">
-        <f t="shared" si="2"/>
+      <c r="F18" s="28">
+        <f t="shared" si="3"/>
         <v>2.0875112643217807E-2</v>
       </c>
-      <c r="G18" s="27">
-        <f t="shared" si="2"/>
+      <c r="G18" s="28">
+        <f t="shared" si="3"/>
         <v>5.0235299166082594E-3</v>
       </c>
-      <c r="H18" s="27">
-        <f t="shared" si="2"/>
+      <c r="H18" s="28">
+        <f t="shared" si="3"/>
         <v>1.5817253364992633E-2</v>
       </c>
-      <c r="I18" s="27">
-        <f t="shared" si="2"/>
+      <c r="I18" s="28">
+        <f t="shared" si="3"/>
         <v>2.065197179270787E-2</v>
       </c>
-      <c r="J18" s="27">
-        <f t="shared" si="2"/>
+      <c r="J18" s="28">
+        <f t="shared" si="3"/>
         <v>1.4595700247457481E-2</v>
       </c>
-      <c r="K18" s="27">
-        <f t="shared" si="2"/>
+      <c r="K18" s="28">
+        <f t="shared" si="3"/>
         <v>8.8655576375677655E-3</v>
       </c>
-      <c r="L18" s="27">
-        <f t="shared" si="2"/>
+      <c r="L18" s="28">
+        <f t="shared" si="3"/>
         <v>1.6915792936733846E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="64" t="s">
-        <v>104</v>
+      <c r="A19" s="53" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -14803,18 +18414,18 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="54" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4">
@@ -14825,7 +18436,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4">
@@ -14836,7 +18447,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
@@ -14847,7 +18458,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="4">
@@ -14858,7 +18469,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
@@ -14869,7 +18480,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="4">
@@ -14880,7 +18491,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="4">
@@ -14891,7 +18502,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="4">
@@ -14902,7 +18513,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="4">
@@ -14913,13 +18524,13 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="7">
         <v>5913</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>1.6915792936733846E-2</v>
       </c>
     </row>
@@ -14940,280 +18551,277 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBCE300-B904-4F02-B7AA-01D69977856E}">
-  <dimension ref="E3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
-        <v>107</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="81"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>32.6</v>
+      </c>
+      <c r="C3">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>29.4</v>
+      </c>
+      <c r="C4">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C5">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DCE5B2-B9BF-4717-8E9A-D51952CBE8F2}">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E80C00E-6F6B-41EE-998E-321580DB9D84}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.453125" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="31.08984375" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="63"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="63"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="27">
-        <f>B18/B$17</f>
-        <v>9.807825484764543E-2</v>
-      </c>
-      <c r="C4" s="27">
-        <f>D18/D$17</f>
-        <v>8.3447325164821243E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="27">
-        <f>B19/B$17</f>
-        <v>0.66742555401662051</v>
-      </c>
-      <c r="C5" s="27">
-        <f>D19/D$17</f>
-        <v>0.6943000989955237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="42">
-        <f>B20/B$17</f>
-        <v>0.14199272853185596</v>
-      </c>
-      <c r="C6" s="42">
-        <f>D20/D$17</f>
-        <v>8.8004567187990046E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="27">
-        <f>B21/B$17</f>
-        <v>1.3270429362880887E-2</v>
-      </c>
-      <c r="C7" s="27">
-        <f>D21/D$17</f>
-        <v>2.4769435911173233E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="27">
-        <f>B22/B$17</f>
-        <v>4.5178324099722993E-2</v>
-      </c>
-      <c r="C8" s="27">
-        <f>D22/D$17</f>
-        <v>3.9043887573442675E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="81"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="72">
+        <f>A14/A$13</f>
+        <v>0.89379488205607061</v>
+      </c>
+      <c r="C3" s="72">
+        <f>D14/D$13</f>
+        <v>0.93631660101730008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="72">
+        <f t="shared" ref="B4:B6" si="0">A15/A$13</f>
+        <v>4.210853954067454E-3</v>
+      </c>
+      <c r="C4" s="72">
+        <f t="shared" ref="C4:C6" si="1">D15/D$13</f>
+        <v>2.0953882677420973E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="72">
+        <f t="shared" si="0"/>
+        <v>6.0108050423530984E-2</v>
+      </c>
+      <c r="C5" s="72">
+        <f t="shared" si="1"/>
+        <v>3.4191585254936353E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="72">
+        <f t="shared" si="0"/>
+        <v>4.1886213566330953E-2</v>
+      </c>
+      <c r="C6" s="72">
+        <f t="shared" si="1"/>
+        <v>2.7396425460021471E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
-        <v>69</v>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>224895</v>
+      </c>
+      <c r="B13">
+        <v>3000.2033264430602</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>2609063</v>
+      </c>
+      <c r="E13">
+        <v>1749.0120068198501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>201010</v>
+      </c>
+      <c r="B14">
+        <v>3185.2682775552798</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14">
+        <v>2442909</v>
+      </c>
+      <c r="E14">
+        <v>4674.4713070036096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>947</v>
+      </c>
+      <c r="B15">
+        <v>622.73670198567902</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15">
+        <v>5467</v>
+      </c>
+      <c r="E15">
+        <v>899.00723022676505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>13518</v>
+      </c>
+      <c r="B16">
+        <v>1548.2254357812401</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>73</v>
+        <v>177</v>
+      </c>
+      <c r="D16">
+        <v>89208</v>
+      </c>
+      <c r="E16">
+        <v>3556.6887690659701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>9420</v>
       </c>
       <c r="B17">
-        <v>115520</v>
-      </c>
-      <c r="C17">
-        <v>2097.4505953657199</v>
+        <v>1081.90433957906</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
       </c>
       <c r="D17">
-        <v>1508149</v>
+        <v>71479</v>
       </c>
       <c r="E17">
-        <v>5040.3784580128504</v>
-      </c>
-      <c r="F17">
-        <v>5040.3784580128504</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18">
-        <v>11330</v>
-      </c>
-      <c r="C18">
-        <v>924.25645791630802</v>
-      </c>
-      <c r="D18">
-        <v>125851</v>
-      </c>
-      <c r="E18">
-        <v>2866.7830402735399</v>
-      </c>
-      <c r="F18">
-        <v>6153.7337446464198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19">
-        <v>77101</v>
-      </c>
-      <c r="C19">
-        <v>1993.6476619503301</v>
-      </c>
-      <c r="D19">
-        <v>1047108</v>
-      </c>
-      <c r="E19">
-        <v>6153.7337446464198</v>
-      </c>
-      <c r="F19">
-        <v>2866.7830402735399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20">
-        <v>16403</v>
-      </c>
-      <c r="C20">
-        <v>1189.5688294504</v>
-      </c>
-      <c r="D20">
-        <v>132724</v>
-      </c>
-      <c r="E20">
-        <v>2411.1627900247599</v>
-      </c>
-      <c r="F20">
-        <v>2411.1627900247599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21">
-        <v>1533</v>
-      </c>
-      <c r="C21">
-        <v>359.001392754959</v>
-      </c>
-      <c r="D21">
-        <v>37356</v>
-      </c>
-      <c r="E21">
-        <v>1373.7041166131801</v>
-      </c>
-      <c r="F21">
-        <v>1938.0882332855699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22">
-        <v>5219</v>
-      </c>
-      <c r="C22">
-        <v>667.69079670158703</v>
-      </c>
-      <c r="D22">
-        <v>58884</v>
-      </c>
-      <c r="E22">
-        <v>1938.0882332855699</v>
-      </c>
-      <c r="F22">
-        <v>1373.7041166131801</v>
+        <v>2386.1915262610401</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/black_history_month_data.xlsx
+++ b/data/black_history_month_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SChildress\Documents\GitHub\heritage-month\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F89646-C872-4E83-A2D3-2CC887EB07DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E48B6AD-5709-49C9-8754-654892BCB01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="7" activeTab="12" xr2:uid="{6BF6366D-BBDF-40F5-8D39-4EF720CAF928}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BF6366D-BBDF-40F5-8D39-4EF720CAF928}"/>
   </bookViews>
   <sheets>
     <sheet name="Median income" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="TransporttoWork" sheetId="6" r:id="rId12"/>
     <sheet name="Map" sheetId="10" r:id="rId13"/>
     <sheet name="WomenGaveBirth" sheetId="13" r:id="rId14"/>
+    <sheet name="travelsurveynotes" sheetId="17" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Pop by County 2010 2020'!$A$4:$A$7</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="212">
   <si>
     <t>Region</t>
   </si>
@@ -725,6 +726,18 @@
   </si>
   <si>
     <t>health insurance</t>
+  </si>
+  <si>
+    <t>One in five Black/African American households in the region have no cars. By comparison, one in 20 white households (5%) are car-less. Asians, Hispanics, and people of other races were slightly more likely than white households to be without cars (7%). Because people of color had fewer cars, they were significantly more likely to use transit than whites. While 16% of African Americans used transit five or more days a week, only 6% of whites rode transit this often. On any given trip, Black survey participants were four times as likely as whites to use a bus or train. They used this mode for about 12% of their trips, while only 4% of whites used public transportation. Asians chose transit for 8% of their trips, while Hispanics and people of other races used this mode 5% of the time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOE </t>
+  </si>
+  <si>
+    <t>Black Adults (total)</t>
+  </si>
+  <si>
+    <t>White Adults (total)</t>
   </si>
 </sst>
 </file>
@@ -1167,11 +1180,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14543,8 +14556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA4F99D-F11C-4B51-BBC9-8709368647B0}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15055,10 +15068,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="82"/>
+      <c r="C1" s="81"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -15494,7 +15507,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="40"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="82" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="74"/>
@@ -15733,7 +15746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E92C88B-E51A-4891-86D1-5015B4F1E45E}">
   <dimension ref="D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -15958,6 +15971,26 @@
       <c r="O6" s="72">
         <f>O4/O3</f>
         <v>4.8346604015237583E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C1A047-89E3-46DF-8CB8-646C6E8E392B}">
+  <dimension ref="B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -16271,16 +16304,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ABD136-B943-4560-9FDA-7DAF09475023}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.36328125" customWidth="1"/>
-    <col min="2" max="3" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="3" max="3" width="35.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
@@ -16315,11 +16349,11 @@
         <v>90</v>
       </c>
       <c r="B4" s="46">
-        <f>(A23+A18)/A$16</f>
+        <f>(D22+D17)/D$15</f>
         <v>0.255785749032099</v>
       </c>
       <c r="C4" s="47">
-        <f>(D23+D18)/D$16</f>
+        <f>(B22+B17)/B$15</f>
         <v>0.4398081805246033</v>
       </c>
       <c r="D4" s="51"/>
@@ -16332,11 +16366,11 @@
         <v>91</v>
       </c>
       <c r="B5" s="46">
-        <f>(A24+A19)/A$16</f>
+        <f>(D23+D18)/D$15</f>
         <v>0.25610560616258071</v>
       </c>
       <c r="C5" s="47">
-        <f>(D24+D19)/D$16</f>
+        <f>(B23+B18)/B$15</f>
         <v>0.19509283325461699</v>
       </c>
       <c r="D5" s="51"/>
@@ -16349,11 +16383,11 @@
         <v>92</v>
       </c>
       <c r="B6" s="46">
-        <f>(A25+A20)/A$16</f>
+        <f>(D24+D19)/D$15</f>
         <v>0.10234095437371307</v>
       </c>
       <c r="C6" s="47">
-        <f>(D25+D20)/D$16</f>
+        <f>(B24+B19)/B$15</f>
         <v>4.1312485083336944E-2</v>
       </c>
       <c r="D6" s="51"/>
@@ -16366,11 +16400,11 @@
         <v>93</v>
       </c>
       <c r="B7" s="49">
-        <f>(A26+A21)/A$16</f>
+        <f>(D25+D20)/D$15</f>
         <v>0.38576769043160719</v>
       </c>
       <c r="C7" s="50">
-        <f>(D26+D21)/D$16</f>
+        <f>(B25+B20)/B$15</f>
         <v>0.32378650113744278</v>
       </c>
       <c r="D7" s="51"/>
@@ -16417,211 +16451,206 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>1986034</v>
+      </c>
+      <c r="C15">
+        <v>643.40267329255005</v>
+      </c>
+      <c r="D15">
+        <v>150067</v>
+      </c>
+      <c r="E15">
+        <v>1497.47621016162</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>150067</v>
+      <c r="A16" t="s">
+        <v>80</v>
       </c>
       <c r="B16">
-        <v>1497.47621016162</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
+        <v>998515</v>
+      </c>
+      <c r="C16">
+        <v>358.36294451296197</v>
       </c>
       <c r="D16">
-        <v>1986034</v>
+        <v>70031</v>
       </c>
       <c r="E16">
-        <v>643.40267329255005</v>
+        <v>927.74457691759096</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>70031</v>
+      <c r="A17" t="s">
+        <v>81</v>
       </c>
       <c r="B17">
-        <v>927.74457691759096</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
+        <v>436959</v>
+      </c>
+      <c r="C17">
+        <v>2937.7830076436899</v>
       </c>
       <c r="D17">
-        <v>998515</v>
+        <v>17256</v>
       </c>
       <c r="E17">
-        <v>358.36294451296197</v>
+        <v>968.26287752861799</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17256</v>
+      <c r="A18" t="s">
+        <v>82</v>
       </c>
       <c r="B18">
-        <v>968.26287752861799</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
+        <v>189505</v>
+      </c>
+      <c r="C18">
+        <v>2568.75553527384</v>
       </c>
       <c r="D18">
-        <v>436959</v>
+        <v>17068</v>
       </c>
       <c r="E18">
-        <v>2937.7830076436899</v>
+        <v>1046.6350844492099</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>17068</v>
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
       <c r="B19">
-        <v>1046.6350844492099</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
+        <v>37781</v>
+      </c>
+      <c r="C19">
+        <v>1357.7227257433699</v>
       </c>
       <c r="D19">
-        <v>189505</v>
+        <v>8658</v>
       </c>
       <c r="E19">
-        <v>2568.75553527384</v>
+        <v>658.71541654951398</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>8658</v>
+      <c r="A20" t="s">
+        <v>84</v>
       </c>
       <c r="B20">
-        <v>658.71541654951398</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
+        <v>334270</v>
+      </c>
+      <c r="C20">
+        <v>3207.7962840554601</v>
       </c>
       <c r="D20">
-        <v>37781</v>
+        <v>27049</v>
       </c>
       <c r="E20">
-        <v>1357.7227257433699</v>
+        <v>1134.1895785096999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>27049</v>
+      <c r="A21" t="s">
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>1134.1895785096999</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
+        <v>987519</v>
+      </c>
+      <c r="C21">
+        <v>395.02025264535501</v>
       </c>
       <c r="D21">
-        <v>334270</v>
+        <v>80036</v>
       </c>
       <c r="E21">
-        <v>3207.7962840554601</v>
+        <v>984.92436257816303</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>80036</v>
+      <c r="A22" t="s">
+        <v>86</v>
       </c>
       <c r="B22">
-        <v>984.92436257816303</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
+        <v>436515</v>
+      </c>
+      <c r="C22">
+        <v>3329.6273064714001</v>
       </c>
       <c r="D22">
-        <v>987519</v>
+        <v>21129</v>
       </c>
       <c r="E22">
-        <v>395.02025264535501</v>
+        <v>1043.2583572634301</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>21129</v>
+      <c r="A23" t="s">
+        <v>87</v>
       </c>
       <c r="B23">
-        <v>1043.2583572634301</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
+        <v>197956</v>
+      </c>
+      <c r="C23">
+        <v>3021.8097226661998</v>
       </c>
       <c r="D23">
-        <v>436515</v>
+        <v>21365</v>
       </c>
       <c r="E23">
-        <v>3329.6273064714001</v>
+        <v>1277.50107632049</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>21365</v>
+      <c r="A24" t="s">
+        <v>88</v>
       </c>
       <c r="B24">
-        <v>1277.50107632049</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
+        <v>44267</v>
+      </c>
+      <c r="C24">
+        <v>1435.1870958171301</v>
       </c>
       <c r="D24">
-        <v>197956</v>
+        <v>6700</v>
       </c>
       <c r="E24">
-        <v>3021.8097226661998</v>
+        <v>699.04291713742396</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>6700</v>
+      <c r="A25" t="s">
+        <v>89</v>
       </c>
       <c r="B25">
-        <v>699.04291713742396</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
+        <v>308781</v>
+      </c>
+      <c r="C25">
+        <v>3219.5437564971799</v>
       </c>
       <c r="D25">
-        <v>44267</v>
+        <v>30842</v>
       </c>
       <c r="E25">
-        <v>1435.1870958171301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>30842</v>
-      </c>
-      <c r="B26">
         <v>1241.2070737793899</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26">
-        <v>308781</v>
-      </c>
-      <c r="E26">
-        <v>3219.5437564971799</v>
       </c>
     </row>
   </sheetData>
@@ -16629,7 +16658,8 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18565,10 +18595,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="81"/>
+      <c r="C1" s="80"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -18650,10 +18680,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="81"/>
+      <c r="C1" s="80"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
